--- a/TeamYYZReport.xlsx
+++ b/TeamYYZReport.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\CS555-Agille-Methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A140E5A-42C3-4116-BCD1-26D2BFACBDD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA78DED-60CC-443F-B865-C3790266D13A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="288">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -163,677 +163,874 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>Review Results</t>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+  </si>
+  <si>
+    <t>Avoid:</t>
+  </si>
+  <si>
+    <t>GitHub Username</t>
+  </si>
+  <si>
+    <t>GitHub Repository:</t>
+  </si>
+  <si>
+    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
+  </si>
+  <si>
+    <t>Birth should occur before marriage of an individual</t>
+  </si>
+  <si>
+    <t>Birth should occur before death of an individual</t>
+  </si>
+  <si>
+    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
+  </si>
+  <si>
+    <t>Marriage should occur before death of either spouse</t>
+  </si>
+  <si>
+    <t>Divorce can only occur before death of both spouses</t>
+  </si>
+  <si>
+    <t>Marriage should not occur during marriage to another spouse</t>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+  </si>
+  <si>
+    <t>There should be fewer than 15 siblings in a family</t>
+  </si>
+  <si>
+    <t>All male members of a family should have the same last name</t>
+  </si>
+  <si>
+    <t>Siblings should not marry one another</t>
+  </si>
+  <si>
+    <t>First cousins should not marry one another</t>
+  </si>
+  <si>
+    <t>Aunts and uncles should not marry their nieces or nephews</t>
+  </si>
+  <si>
+    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>No more than one child with the same name and birth date should appear in a family</t>
+  </si>
+  <si>
+    <t>Include person's current age when listing individuals</t>
+  </si>
+  <si>
+    <t>List all deceased individuals in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>Birth before marriage</t>
+  </si>
+  <si>
+    <t>Marriage before divorce</t>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>No bigamy</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
+    <t>Unique families by spouses</t>
+  </si>
+  <si>
+    <t>Unique first names in families</t>
+  </si>
+  <si>
+    <t>Corresponding entries</t>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>List orphans</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>List large age differences</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
+  </si>
+  <si>
+    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their children</t>
+  </si>
+  <si>
+    <t>No marriages to children</t>
+  </si>
+  <si>
+    <t>Source File</t>
+  </si>
+  <si>
+    <t>Test File</t>
+  </si>
+  <si>
+    <t>Source Function</t>
+  </si>
+  <si>
+    <t>Source Lines</t>
+  </si>
+  <si>
+    <t>Test Function</t>
+  </si>
+  <si>
+    <t>Test lines</t>
+  </si>
+  <si>
+    <t>Lianghai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhaocong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lyang42@stevens.edu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lyang44@stevens.edu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zwang193@stevens.edu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lianghai-Yang</t>
+  </si>
+  <si>
+    <t>snakeeyes233</t>
+  </si>
+  <si>
+    <t>CS555-Agille-Methods</t>
+  </si>
+  <si>
+    <t>ly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiuYang3433</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T06.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T06.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store death date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">T06.03 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T12.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store ages of parents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T12.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sore ages of children</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">T12.03 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare ages between parents and children</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T08.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find marriage record for individual</t>
+  </si>
+  <si>
+    <t>T08.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare marriage date to birth date</t>
+  </si>
+  <si>
+    <t>ly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T30.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T30.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find marriage record for individual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if they divorced or died</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T36.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find death record for individual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T36.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if they died in 30 days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find marriage record for spouses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Store birth date </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare ages with marriage date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T10.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T10.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T10.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store divorce date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare divorce and death date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utils.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lists.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ages.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_recent_deaths</t>
+  </si>
+  <si>
+    <t>marriage_after_14</t>
+  </si>
+  <si>
+    <t>test_marriage_after_14</t>
+  </si>
+  <si>
+    <t>52-70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29-50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Coding</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Review Results</t>
+    <t>US02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T09.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T09.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare birth date and death date of parents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store birth date and death date of parents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T02.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store marriage date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T02.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store birth dates of spouse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T02.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare dates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T31.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store indiviual's age</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T31.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check indiviual's marriage information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T31.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store single's information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T07.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store death date and birth date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T07.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare dates with the number 150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T35.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T35.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check the birth date in recent 30 days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store informations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_list_recent_deaths</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Keep doing:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bring pizza to our meetings </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep pair programming</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Avoid:</t>
-  </si>
-  <si>
-    <t>GitHub Username</t>
-  </si>
-  <si>
-    <t>GitHub Repository:</t>
-  </si>
-  <si>
-    <t>Dates (birth, marriage, divorce, death) should not be after the current date</t>
-  </si>
-  <si>
-    <t>Birth should occur before marriage of an individual</t>
-  </si>
-  <si>
-    <t>Birth should occur before death of an individual</t>
-  </si>
-  <si>
-    <t>Marriage should occur before divorce of spouses, and divorce can only occur after marriage</t>
-  </si>
-  <si>
-    <t>Marriage should occur before death of either spouse</t>
-  </si>
-  <si>
-    <t>Divorce can only occur before death of both spouses</t>
-  </si>
-  <si>
-    <t>Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t>No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t>There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t>All male members of a family should have the same last name</t>
-  </si>
-  <si>
-    <t>Siblings should not marry one another</t>
-  </si>
-  <si>
-    <t>First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t>Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t>Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t>List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
-  </si>
-  <si>
-    <t>Story Name</t>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
-    <t>Birth before death</t>
-  </si>
-  <si>
-    <t>Birth before marriage</t>
-  </si>
-  <si>
-    <t>Marriage before divorce</t>
-  </si>
-  <si>
-    <t>Marriage before death</t>
-  </si>
-  <si>
-    <t>Divorce before death</t>
-  </si>
-  <si>
-    <t>Less then 150 years old</t>
-  </si>
-  <si>
-    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t>Birth before death of parents</t>
-  </si>
-  <si>
-    <t>Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t>Marriage after 14</t>
-  </si>
-  <si>
-    <t>No bigamy</t>
-  </si>
-  <si>
-    <t>Parents not too old</t>
-  </si>
-  <si>
-    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t>Siblings spacing</t>
-  </si>
-  <si>
-    <t>Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t>Male last names</t>
-  </si>
-  <si>
-    <t>Siblings should not marry</t>
-  </si>
-  <si>
-    <t>First cousins should not marry</t>
-  </si>
-  <si>
-    <t>Aunts and uncles</t>
-  </si>
-  <si>
-    <t>Correct gender for role</t>
-  </si>
-  <si>
-    <t>Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t>All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t>Unique IDs</t>
-  </si>
-  <si>
-    <t>Unique name and birth date</t>
-  </si>
-  <si>
-    <t>Unique families by spouses</t>
-  </si>
-  <si>
-    <t>Unique first names in families</t>
-  </si>
-  <si>
-    <t>Corresponding entries</t>
-  </si>
-  <si>
-    <t>Include individual ages</t>
-  </si>
-  <si>
-    <t>Order siblings by age</t>
-  </si>
-  <si>
-    <t>List deceased</t>
-  </si>
-  <si>
-    <t>List living married</t>
-  </si>
-  <si>
-    <t>List living single</t>
-  </si>
-  <si>
-    <t>List multiple births</t>
-  </si>
-  <si>
-    <t>List orphans</t>
-  </si>
-  <si>
-    <t>List recent births</t>
-  </si>
-  <si>
-    <t>List recent deaths</t>
-  </si>
-  <si>
-    <t>List recent survivors</t>
-  </si>
-  <si>
-    <t>List upcoming birthdays</t>
-  </si>
-  <si>
-    <t>List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t>Include input line numbers</t>
-  </si>
-  <si>
-    <t>List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>List large age differences</t>
-  </si>
-  <si>
-    <t>Story ID</t>
-  </si>
-  <si>
-    <t>US01</t>
-  </si>
-  <si>
-    <t>US02</t>
-  </si>
-  <si>
-    <t>US03</t>
-  </si>
-  <si>
-    <t>US04</t>
-  </si>
-  <si>
-    <t>US05</t>
-  </si>
-  <si>
-    <t>US06</t>
-  </si>
-  <si>
-    <t>US07</t>
-  </si>
-  <si>
-    <t>US08</t>
-  </si>
-  <si>
-    <t>US09</t>
-  </si>
-  <si>
-    <t>US10</t>
-  </si>
-  <si>
-    <t>US11</t>
-  </si>
-  <si>
-    <t>US12</t>
-  </si>
-  <si>
-    <t>US13</t>
-  </si>
-  <si>
-    <t>US14</t>
-  </si>
-  <si>
-    <t>US15</t>
-  </si>
-  <si>
-    <t>US16</t>
-  </si>
-  <si>
-    <t>US17</t>
-  </si>
-  <si>
-    <t>US18</t>
-  </si>
-  <si>
-    <t>US19</t>
-  </si>
-  <si>
-    <t>US20</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>US22</t>
-  </si>
-  <si>
-    <t>US23</t>
-  </si>
-  <si>
-    <t>US24</t>
-  </si>
-  <si>
-    <t>US25</t>
-  </si>
-  <si>
-    <t>US26</t>
-  </si>
-  <si>
-    <t>US27</t>
-  </si>
-  <si>
-    <t>US28</t>
-  </si>
-  <si>
-    <t>US29</t>
-  </si>
-  <si>
-    <t>US30</t>
-  </si>
-  <si>
-    <t>US31</t>
-  </si>
-  <si>
-    <t>US32</t>
-  </si>
-  <si>
-    <t>US33</t>
-  </si>
-  <si>
-    <t>US34</t>
-  </si>
-  <si>
-    <t>US35</t>
-  </si>
-  <si>
-    <t>US36</t>
-  </si>
-  <si>
-    <t>US37</t>
-  </si>
-  <si>
-    <t>US38</t>
-  </si>
-  <si>
-    <t>US39</t>
-  </si>
-  <si>
-    <t>US40</t>
-  </si>
-  <si>
-    <t>US41</t>
-  </si>
-  <si>
-    <t>US42</t>
-  </si>
-  <si>
-    <t>Coding</t>
-  </si>
-  <si>
-    <t>Dates before current date</t>
-  </si>
-  <si>
-    <t>Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t>Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t>Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
-    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t>Parents should not marry any of their children</t>
-  </si>
-  <si>
-    <t>No marriages to children</t>
-  </si>
-  <si>
-    <t>Source File</t>
-  </si>
-  <si>
-    <t>Test File</t>
-  </si>
-  <si>
-    <t>Source Function</t>
-  </si>
-  <si>
-    <t>Source Lines</t>
-  </si>
-  <si>
-    <t>Test Function</t>
-  </si>
-  <si>
-    <t>Test lines</t>
-  </si>
-  <si>
-    <t>Lianghai</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhaocong</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lyang42@stevens.edu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lyang44@stevens.edu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zwang193@stevens.edu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lianghai-Yang</t>
-  </si>
-  <si>
-    <t>snakeeyes233</t>
-  </si>
-  <si>
-    <t>CS555-Agille-Methods</t>
-  </si>
-  <si>
-    <t>ly</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LiuYang3433</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ly</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T06.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store birth date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T06.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store death date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">T06.03 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare birth and death date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T12.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store ages of parents</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T12.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sore ages of children</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">T12.03 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare ages between parents and children</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T08.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find marriage record for individual</t>
-  </si>
-  <si>
-    <t>T08.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare marriage date to birth date</t>
-  </si>
-  <si>
-    <t>ly</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T30.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T30.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find marriage record for individual</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check if they divorced or died</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T36.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find death record for individual</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T36.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check if they died in 30 days</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US10.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find marriage record for spouses</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US10.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Store birth date </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US10.03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare ages with marriage date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waste time on chatting</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -845,7 +1042,7 @@
     <numFmt numFmtId="176" formatCode="m/d"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -890,6 +1087,18 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -983,7 +1192,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1028,6 +1237,16 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1281,6 +1500,9 @@
                 <c:pt idx="0">
                   <c:v>42261</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>42275</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1292,6 +1514,9 @@
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2181,7 +2406,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -2208,66 +2433,66 @@
         <v>22</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D5" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" t="s">
         <v>191</v>
-      </c>
-      <c r="E5" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -2285,17 +2510,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="25.875" customWidth="1"/>
     <col min="4" max="4" width="6.625" customWidth="1"/>
     <col min="5" max="5" width="7.625" customWidth="1"/>
   </cols>
@@ -2322,16 +2547,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>30</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -2339,16 +2564,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="C3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="E3" t="s">
-        <v>155</v>
+      <c r="E3" s="19" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2356,16 +2581,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>195</v>
-      </c>
-      <c r="E4" t="s">
-        <v>155</v>
+        <v>193</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2373,16 +2598,16 @@
         <v>1</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>202</v>
-      </c>
-      <c r="E5" t="s">
-        <v>155</v>
+        <v>200</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2390,16 +2615,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E6" t="s">
-        <v>155</v>
+        <v>201</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -2407,16 +2632,118 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>203</v>
-      </c>
-      <c r="E7" t="s">
-        <v>155</v>
+        <v>201</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="C12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="C13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2430,7 +2757,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
@@ -2446,37 +2773,37 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -2499,7 +2826,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B15" s="13">
         <v>41065</v>
@@ -2515,7 +2842,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B16" s="13">
         <v>41078</v>
@@ -2540,7 +2867,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B17" s="13">
         <v>41092</v>
@@ -2565,7 +2892,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B18" s="13">
         <v>41106</v>
@@ -2590,7 +2917,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B19" s="13">
         <v>41120</v>
@@ -2623,10 +2950,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2670,6 +2997,17 @@
         <v>0</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>42275</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2680,10 +3018,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2692,17 +3030,17 @@
     <col min="2" max="2" width="51.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
     <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.375" style="17" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="1.875" style="17" customWidth="1"/>
     <col min="15" max="15" width="10.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.75" style="17" customWidth="1"/>
     <col min="17" max="17" width="10.125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2735,36 +3073,36 @@
         <v>17</v>
       </c>
       <c r="K1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="M1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="P1" s="16" t="s">
         <v>180</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="Q1" s="16" t="s">
         <v>181</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>204</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>68</v>
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" t="s">
-        <v>30</v>
+        <v>198</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>232</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -2781,35 +3119,35 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>208</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
@@ -2817,16 +3155,16 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>198</v>
       </c>
-      <c r="B8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>200</v>
-      </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="E8">
         <v>200</v>
@@ -2843,35 +3181,36 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>212</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
@@ -2881,16 +3220,16 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D14" t="s">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="E14">
         <v>200</v>
@@ -2901,44 +3240,45 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>223</v>
-      </c>
+      <c r="D16" s="19"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="23"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D19" t="s">
-        <v>30</v>
+        <v>231</v>
       </c>
       <c r="E19">
         <v>150</v>
@@ -2947,135 +3287,207 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="19" t="s">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" s="19"/>
+      <c r="B20"/>
+      <c r="C20" s="19"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="21"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>147</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24" t="s">
+        <v>231</v>
+      </c>
+      <c r="E24">
+        <v>200</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>30</v>
+      </c>
+      <c r="H24">
+        <v>110</v>
+      </c>
+      <c r="I24" s="6">
+        <v>42275</v>
+      </c>
+      <c r="K24" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="L24" s="24" t="s">
+        <v>241</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>239</v>
+      </c>
+      <c r="P24" s="24" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q24" s="25" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B25"/>
+      <c r="C25" s="19"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B26" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21" s="21" t="s">
+      <c r="B27" s="21" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" s="19"/>
-      <c r="B22" s="21"/>
-      <c r="I22" s="7"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>148</v>
-      </c>
-      <c r="B23" t="s">
-        <v>103</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="C27" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" t="s">
+        <v>231</v>
+      </c>
+      <c r="E29">
+        <v>150</v>
+      </c>
+      <c r="F29">
+        <v>120</v>
+      </c>
+      <c r="G29">
         <v>30</v>
       </c>
-      <c r="E23">
-        <v>200</v>
-      </c>
-      <c r="F23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="H29">
+        <v>60</v>
+      </c>
+      <c r="I29" s="6">
+        <v>42274</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="O29" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="P29" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q29" s="18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B30"/>
+      <c r="C30" s="19"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B31" s="21" t="s">
         <v>228</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="C31" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="D31" s="19"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A32" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="B32" s="21" t="s">
         <v>229</v>
       </c>
-      <c r="C24" s="19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="19" t="s">
+      <c r="C32" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B33" s="21" t="s">
         <v>230</v>
       </c>
-      <c r="B25" s="21" t="s">
-        <v>231</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>122</v>
-      </c>
-      <c r="B27" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C33" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B38" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E27">
-        <v>150</v>
-      </c>
-      <c r="F27">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A28" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A29" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" s="19" t="s">
-        <v>236</v>
-      </c>
-      <c r="B30" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="5" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B40" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="5" t="s">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B42" s="5" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -3087,13 +3499,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="43.125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
@@ -3122,6 +3538,314 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="E2">
+        <v>40</v>
+      </c>
+      <c r="F2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="B7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>262</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13">
+        <v>50</v>
+      </c>
+      <c r="F13">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="B19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="E19">
+        <v>40</v>
+      </c>
+      <c r="F19">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="B23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>278</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>281</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+    </row>
+    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+    </row>
+    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="B28" t="s">
+        <v>104</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>251</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="E28">
+        <v>60</v>
+      </c>
+      <c r="F28">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="26"/>
+      <c r="B33" s="19" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3225,8 +3949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3237,480 +3961,480 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="12" t="s">
         <v>73</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>75</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C13" s="12" t="s">
         <v>79</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>87</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B35" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B41" t="s">
+        <v>106</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>107</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/TeamYYZReport.xlsx
+++ b/TeamYYZReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\CS555-Agille-Methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA78DED-60CC-443F-B865-C3790266D13A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B21F67B-6A4C-4600-93DE-F9FA04C43A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="325">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -890,147 +890,295 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>US02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T09.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T09.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare birth date and death date of parents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store birth date and death date of parents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T02.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store marriage date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T02.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store birth dates of spouse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T02.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare dates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T31.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store indiviual's age</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T31.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check indiviual's marriage information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T31.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store single's information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T07.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store death date and birth date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T07.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare dates with the number 150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T35.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T35.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check the birth date in recent 30 days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store informations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_list_recent_deaths</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Bring pizza to our meetings </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep pair programming</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avoid:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Waste time on chatting</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US08</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Coding</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>US02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US07</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US38</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T09.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T09.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare birth date and death date of parents</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store birth date and death date of parents</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T02.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store marriage date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T02.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store birth dates of spouse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T02.03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare dates</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T31.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store indiviual's age</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T31.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check indiviual's marriage information</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T31.03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store single's information</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T07.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store death date and birth date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T07.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare dates with the number 150</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T35.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T35.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check the birth date in recent 30 days</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store informations</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_list_recent_deaths</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keep doing:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Bring pizza to our meetings </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>keep pair programming</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avoid:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Waste time on chatting</t>
+    <t>Coding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T01.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T01.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T03.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T03.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T04.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T05.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T05.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T08.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T08.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T11.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T11.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check date information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare with the current date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check the date of birth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check the date of death</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T03.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare both date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare dates between divore and marriage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store the date of marriage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store the date of death</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T05.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare both dates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store the date of child's birth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store the date of parent's marriage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T08.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check the spouse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Make sure someone only have one spouse during the marriage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1503,6 +1651,9 @@
                 <c:pt idx="1">
                   <c:v>42275</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>42289</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1517,6 +1668,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2510,17 +2664,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="7.625" customWidth="1"/>
-    <col min="3" max="3" width="25.875" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
     <col min="4" max="4" width="6.625" customWidth="1"/>
     <col min="5" max="5" width="7.625" customWidth="1"/>
   </cols>
@@ -2658,7 +2812,7 @@
         <v>249</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2666,7 +2820,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C9" t="s">
         <v>68</v>
@@ -2675,7 +2829,7 @@
         <v>249</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2683,7 +2837,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C10" t="s">
         <v>98</v>
@@ -2692,7 +2846,7 @@
         <v>250</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2700,7 +2854,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C11" t="s">
         <v>72</v>
@@ -2709,7 +2863,7 @@
         <v>250</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2717,7 +2871,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C12" t="s">
         <v>101</v>
@@ -2726,7 +2880,7 @@
         <v>251</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -2734,7 +2888,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C13" t="s">
         <v>104</v>
@@ -2743,7 +2897,109 @@
         <v>251</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>252</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="C18" t="s">
+        <v>155</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2950,10 +3206,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3008,6 +3264,17 @@
         <v>6</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>42289</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3020,7 +3287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -3356,7 +3623,7 @@
         <v>239</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="Q24" s="25" t="s">
         <v>246</v>
@@ -3502,7 +3769,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3511,7 +3778,7 @@
     <col min="2" max="2" width="43.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3551,7 +3818,7 @@
         <v>249</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="E2">
         <v>40</v>
@@ -3567,20 +3834,20 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>259</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>260</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
@@ -3592,7 +3859,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
         <v>68</v>
@@ -3601,7 +3868,7 @@
         <v>249</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -3617,30 +3884,30 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="B11" s="19" t="s">
         <v>266</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>267</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
@@ -3652,7 +3919,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B13" t="s">
         <v>98</v>
@@ -3661,7 +3928,7 @@
         <v>250</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="E13">
         <v>50</v>
@@ -3677,30 +3944,30 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="19" t="s">
         <v>268</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>269</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>270</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>271</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B17" s="19" t="s">
         <v>272</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>273</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
@@ -3713,7 +3980,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
@@ -3722,7 +3989,7 @@
         <v>250</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="E19">
         <v>40</v>
@@ -3733,20 +4000,20 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="B20" s="19" t="s">
         <v>274</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>275</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="B21" s="19" t="s">
         <v>276</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>277</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
@@ -3758,7 +4025,7 @@
     </row>
     <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B23" t="s">
         <v>101</v>
@@ -3767,7 +4034,7 @@
         <v>251</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="E23">
         <v>30</v>
@@ -3778,20 +4045,20 @@
     </row>
     <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
@@ -3808,7 +4075,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s">
         <v>104</v>
@@ -3817,7 +4084,7 @@
         <v>251</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="E28">
         <v>60</v>
@@ -3828,24 +4095,24 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
+        <v>282</v>
+      </c>
+      <c r="B32" s="26" t="s">
         <v>283</v>
-      </c>
-      <c r="B32" s="26" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="26"/>
       <c r="B33" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="B34" s="19" t="s">
         <v>286</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3857,13 +4124,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="50.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
@@ -3894,9 +4164,289 @@
         <v>17</v>
       </c>
     </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="B2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E11">
+        <v>50</v>
+      </c>
+      <c r="F11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E15">
+        <v>50</v>
+      </c>
+      <c r="F15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>303</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="19"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="B20" t="s">
+        <v>155</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E20">
+        <v>50</v>
+      </c>
+      <c r="F20">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="E25">
+        <v>50</v>
+      </c>
+      <c r="F25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>324</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3949,8 +4499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/TeamYYZReport.xlsx
+++ b/TeamYYZReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\CS555-Agille-Methods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangliu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B21F67B-6A4C-4600-93DE-F9FA04C43A89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9976BEB2-7681-DA41-B10D-CABD0FE7A2BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="355">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1014,22 +1012,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Bring pizza to our meetings </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>keep pair programming</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Avoid:</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Waste time on chatting</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>US01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1180,6 +1166,105 @@
   <si>
     <t>Make sure someone only have one spouse during the marriage</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Utils.py</t>
+  </si>
+  <si>
+    <t>birth_before_death_of_parents</t>
+  </si>
+  <si>
+    <t>211-236</t>
+  </si>
+  <si>
+    <t>birth_before_marriage</t>
+  </si>
+  <si>
+    <t>238-247</t>
+  </si>
+  <si>
+    <t>list_living_single</t>
+  </si>
+  <si>
+    <t>137-157</t>
+  </si>
+  <si>
+    <t>less_than_150</t>
+  </si>
+  <si>
+    <t>160-173</t>
+  </si>
+  <si>
+    <t>list_recent_birth</t>
+  </si>
+  <si>
+    <t>175-191</t>
+  </si>
+  <si>
+    <t>list_upcoming_birthdays</t>
+  </si>
+  <si>
+    <t>193-209</t>
+  </si>
+  <si>
+    <t>TestDates.py</t>
+  </si>
+  <si>
+    <t>57-65</t>
+  </si>
+  <si>
+    <t>89-107</t>
+  </si>
+  <si>
+    <t>test_birth_before_marriage</t>
+  </si>
+  <si>
+    <t>TestLists.py</t>
+  </si>
+  <si>
+    <t>40-59</t>
+  </si>
+  <si>
+    <t>test_list_living_single</t>
+  </si>
+  <si>
+    <t>test_less_than_150</t>
+  </si>
+  <si>
+    <t>33-56</t>
+  </si>
+  <si>
+    <t>58-69</t>
+  </si>
+  <si>
+    <t>test_list_recent_birth</t>
+  </si>
+  <si>
+    <t>test_upcoming_birthdays</t>
+  </si>
+  <si>
+    <t>70-82</t>
+  </si>
+  <si>
+    <t>Keep sharing knowledge in program.</t>
+  </si>
+  <si>
+    <t>Try applying new Agile knowledge in team programming.</t>
+  </si>
+  <si>
+    <t>Keep pair programming.</t>
+  </si>
+  <si>
+    <t>Changing meeting  time frequently.</t>
+  </si>
+  <si>
+    <t>Review Results:</t>
+  </si>
+  <si>
+    <t>Sprint2 stories has been done!</t>
   </si>
 </sst>
 </file>
@@ -1187,10 +1272,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="m/d"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1345,20 +1430,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1366,7 +1451,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1390,7 +1475,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="65" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1399,72 +1484,72 @@
     </xf>
   </cellXfs>
   <cellStyles count="66">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="65" xr:uid="{2793029F-823E-4C2B-BEB7-439A2289C590}"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1482,7 +1567,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1506,7 +1591,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1577,7 +1662,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1619,7 +1704,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2561,19 +2646,19 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2590,7 +2675,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="19" t="s">
         <v>198</v>
       </c>
@@ -2607,7 +2692,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="19" t="s">
         <v>193</v>
       </c>
@@ -2624,7 +2709,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="19" t="s">
         <v>199</v>
       </c>
@@ -2641,7 +2726,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2670,16 +2755,16 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2696,7 +2781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2713,7 +2798,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2730,7 +2815,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2747,7 +2832,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2764,7 +2849,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2781,7 +2866,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2798,7 +2883,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2815,7 +2900,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2832,7 +2917,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2849,7 +2934,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2</v>
       </c>
@@ -2866,7 +2951,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>2</v>
       </c>
@@ -2883,7 +2968,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>2</v>
       </c>
@@ -2900,106 +2985,106 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C14" t="s">
         <v>154</v>
       </c>
       <c r="D14" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C15" t="s">
         <v>67</v>
       </c>
       <c r="D15" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>293</v>
       </c>
-      <c r="E15" s="19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="C16" t="s">
         <v>69</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C18" t="s">
         <v>155</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C19" t="s">
         <v>77</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -3013,51 +3098,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="150" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E3" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7"/>
+    <col min="1" max="1" width="10.83203125" style="7"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1">
       <c r="A14" s="4" t="s">
         <v>159</v>
       </c>
@@ -3080,7 +3165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -3096,7 +3181,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -3121,7 +3206,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="7" t="s">
         <v>162</v>
       </c>
@@ -3146,7 +3231,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
         <v>163</v>
       </c>
@@ -3171,7 +3256,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="7" t="s">
         <v>164</v>
       </c>
@@ -3209,20 +3294,20 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3242,7 +3327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>42261</v>
       </c>
@@ -3253,7 +3338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>42275</v>
       </c>
@@ -3263,8 +3348,17 @@
       <c r="C3">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>500</v>
+      </c>
+      <c r="E3">
+        <v>3440</v>
+      </c>
+      <c r="F3" s="9">
+        <v>6.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>42289</v>
       </c>
@@ -3273,6 +3367,15 @@
       </c>
       <c r="C4">
         <v>6</v>
+      </c>
+      <c r="D4">
+        <v>281</v>
+      </c>
+      <c r="E4">
+        <v>1200</v>
+      </c>
+      <c r="F4" s="9">
+        <v>4.3</v>
       </c>
     </row>
   </sheetData>
@@ -3287,31 +3390,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="51.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.375" style="17" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" style="17" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" style="17" customWidth="1"/>
-    <col min="15" max="15" width="10.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.75" style="17" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.6640625" style="17" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="14">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3358,7 +3461,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="19" t="s">
         <v>202</v>
       </c>
@@ -3384,7 +3487,7 @@
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="14">
       <c r="A4" s="19" t="s">
         <v>204</v>
       </c>
@@ -3395,7 +3498,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="14">
       <c r="A5" s="19" t="s">
         <v>205</v>
       </c>
@@ -3406,7 +3509,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="14">
       <c r="A6" s="19" t="s">
         <v>207</v>
       </c>
@@ -3417,10 +3520,10 @@
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="C7" s="19"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="19" t="s">
         <v>196</v>
       </c>
@@ -3446,7 +3549,7 @@
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="14">
       <c r="A10" s="19" t="s">
         <v>209</v>
       </c>
@@ -3458,7 +3561,7 @@
       </c>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="14">
       <c r="A11" s="19" t="s">
         <v>211</v>
       </c>
@@ -3469,7 +3572,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="14">
       <c r="A12" s="19" t="s">
         <v>213</v>
       </c>
@@ -3480,12 +3583,12 @@
         <v>208</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="19"/>
       <c r="B13" s="21"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>119</v>
       </c>
@@ -3505,7 +3608,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="14">
       <c r="A16" s="19" t="s">
         <v>215</v>
       </c>
@@ -3518,7 +3621,7 @@
       <c r="D16" s="19"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="14">
       <c r="A17" s="19" t="s">
         <v>217</v>
       </c>
@@ -3529,12 +3632,12 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="19"/>
       <c r="B18" s="23"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="19" t="s">
         <v>197</v>
       </c>
@@ -3554,13 +3657,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20" s="19"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="14">
       <c r="A21" s="19" t="s">
         <v>220</v>
       </c>
@@ -3569,7 +3672,7 @@
       </c>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="14">
       <c r="A22" s="19" t="s">
         <v>221</v>
       </c>
@@ -3577,12 +3680,12 @@
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="19"/>
       <c r="B23" s="21"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="15">
       <c r="A24" t="s">
         <v>147</v>
       </c>
@@ -3629,12 +3732,12 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="B25"/>
       <c r="C25" s="19"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="14">
       <c r="A26" s="19" t="s">
         <v>224</v>
       </c>
@@ -3645,7 +3748,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="14">
       <c r="A27" s="19" t="s">
         <v>226</v>
       </c>
@@ -3656,7 +3759,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="15">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -3703,12 +3806,12 @@
         <v>247</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="B30"/>
       <c r="C30" s="19"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="14">
       <c r="A31" s="19" t="s">
         <v>233</v>
       </c>
@@ -3720,7 +3823,7 @@
       </c>
       <c r="D31" s="19"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="14">
       <c r="A32" s="19" t="s">
         <v>234</v>
       </c>
@@ -3731,7 +3834,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="14">
       <c r="A33" s="19" t="s">
         <v>235</v>
       </c>
@@ -3742,17 +3845,17 @@
         <v>203</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="14">
       <c r="B38" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="14">
       <c r="B40" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="14">
       <c r="B42" s="5" t="s">
         <v>32</v>
       </c>
@@ -3766,19 +3869,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A21" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="14.875" customWidth="1"/>
-    <col min="2" max="2" width="43.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.33203125" customWidth="1"/>
+    <col min="12" max="12" width="16.5" customWidth="1"/>
+    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="14" max="14" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="14">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3806,8 +3913,26 @@
       <c r="I1" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="19" t="s">
         <v>248</v>
       </c>
@@ -3826,13 +3951,40 @@
       <c r="F2">
         <v>100</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>44</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J2" t="s">
+        <v>323</v>
+      </c>
+      <c r="K2" t="s">
+        <v>324</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="19" t="s">
         <v>257</v>
       </c>
@@ -3842,7 +3994,7 @@
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="19" t="s">
         <v>258</v>
       </c>
@@ -3852,12 +4004,13 @@
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="O6" s="19"/>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="19" t="s">
         <v>252</v>
       </c>
@@ -3876,13 +4029,40 @@
       <c r="F7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <v>54</v>
+      </c>
+      <c r="H7">
+        <v>30</v>
+      </c>
+      <c r="I7" t="s">
+        <v>322</v>
+      </c>
+      <c r="J7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K7" t="s">
+        <v>326</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="M7" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="19" t="s">
         <v>263</v>
       </c>
@@ -3892,7 +4072,7 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="19" t="s">
         <v>261</v>
       </c>
@@ -3902,7 +4082,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" s="19" t="s">
         <v>265</v>
       </c>
@@ -3912,12 +4092,12 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="19" t="s">
         <v>253</v>
       </c>
@@ -3936,13 +4116,40 @@
       <c r="F13">
         <v>110</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <v>53</v>
+      </c>
+      <c r="H13">
+        <v>40</v>
+      </c>
+      <c r="I13" t="s">
+        <v>322</v>
+      </c>
+      <c r="J13" t="s">
+        <v>323</v>
+      </c>
+      <c r="K13" t="s">
+        <v>328</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="19" t="s">
         <v>267</v>
       </c>
@@ -3952,7 +4159,7 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="19" t="s">
         <v>269</v>
       </c>
@@ -3962,7 +4169,7 @@
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" s="19" t="s">
         <v>271</v>
       </c>
@@ -3972,13 +4179,13 @@
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" s="19" t="s">
         <v>254</v>
       </c>
@@ -3997,8 +4204,35 @@
       <c r="F19">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <v>43</v>
+      </c>
+      <c r="H19">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s">
+        <v>322</v>
+      </c>
+      <c r="J19" t="s">
+        <v>323</v>
+      </c>
+      <c r="K19" t="s">
+        <v>330</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="O19" s="19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="19" t="s">
         <v>273</v>
       </c>
@@ -4008,7 +4242,7 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="19" t="s">
         <v>275</v>
       </c>
@@ -4018,12 +4252,12 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="16.5" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>255</v>
       </c>
@@ -4042,8 +4276,35 @@
       <c r="F23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <v>37</v>
+      </c>
+      <c r="H23">
+        <v>40</v>
+      </c>
+      <c r="I23" t="s">
+        <v>322</v>
+      </c>
+      <c r="J23" t="s">
+        <v>323</v>
+      </c>
+      <c r="K23" t="s">
+        <v>332</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>346</v>
+      </c>
+      <c r="O23" s="19" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>277</v>
       </c>
@@ -4053,7 +4314,7 @@
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
     </row>
-    <row r="25" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="16.5" customHeight="1">
       <c r="A25" s="19" t="s">
         <v>278</v>
       </c>
@@ -4063,17 +4324,17 @@
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
     </row>
-    <row r="26" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="16.5" customHeight="1">
       <c r="A26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
     </row>
-    <row r="27" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="16.5" customHeight="1">
       <c r="A27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" s="19" t="s">
         <v>256</v>
       </c>
@@ -4092,27 +4353,68 @@
       <c r="F28">
         <v>100</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="27" t="s">
+      <c r="G28">
+        <v>50</v>
+      </c>
+      <c r="H28">
+        <v>30</v>
+      </c>
+      <c r="I28" t="s">
+        <v>322</v>
+      </c>
+      <c r="J28" t="s">
+        <v>323</v>
+      </c>
+      <c r="K28" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>347</v>
+      </c>
+      <c r="O28" s="19" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="14">
+      <c r="A31" s="27" t="s">
+        <v>353</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14">
+      <c r="A34" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B34" s="26" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="26"/>
+      <c r="B35" s="19" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4"/>
+      <c r="B36" s="19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="4" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="26"/>
-      <c r="B33" s="19" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="B34" s="19" t="s">
-        <v>286</v>
+      <c r="B37" s="19" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -4126,16 +4428,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="14">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4164,18 +4466,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s">
         <v>154</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -4184,43 +4486,43 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="19" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="19" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="19" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B6" t="s">
         <v>67</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -4229,53 +4531,53 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="19" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="19" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="19" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B11" t="s">
         <v>69</v>
       </c>
       <c r="C11" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>294</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>297</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -4284,38 +4586,38 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="19" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
       </c>
       <c r="C15" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>294</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>297</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -4324,49 +4626,49 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="19" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="19" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="19" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B20" t="s">
         <v>155</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E20">
         <v>50</v>
@@ -4375,50 +4677,50 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="19" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="19" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="19" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6">
       <c r="A25" s="19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B25" t="s">
         <v>77</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E25">
         <v>50</v>
@@ -4427,20 +4729,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6">
       <c r="A26" s="19" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="19" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -4458,9 +4760,9 @@
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="28">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4499,17 +4801,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="14">
       <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
@@ -4520,7 +4822,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="34">
       <c r="A2" t="s">
         <v>112</v>
       </c>
@@ -4531,7 +4833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="17">
       <c r="A3" t="s">
         <v>113</v>
       </c>
@@ -4542,7 +4844,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="17">
       <c r="A4" t="s">
         <v>114</v>
       </c>
@@ -4553,7 +4855,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="34">
       <c r="A5" t="s">
         <v>115</v>
       </c>
@@ -4564,7 +4866,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="17">
       <c r="A6" t="s">
         <v>116</v>
       </c>
@@ -4575,7 +4877,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="17">
       <c r="A7" t="s">
         <v>117</v>
       </c>
@@ -4586,7 +4888,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="51">
       <c r="A8" t="s">
         <v>118</v>
       </c>
@@ -4597,7 +4899,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="34">
       <c r="A9" t="s">
         <v>119</v>
       </c>
@@ -4608,7 +4910,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="34">
       <c r="A10" t="s">
         <v>120</v>
       </c>
@@ -4619,7 +4921,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="34">
       <c r="A11" t="s">
         <v>121</v>
       </c>
@@ -4630,7 +4932,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="34">
       <c r="A12" t="s">
         <v>122</v>
       </c>
@@ -4641,7 +4943,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="51">
       <c r="A13" t="s">
         <v>123</v>
       </c>
@@ -4652,7 +4954,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="68">
       <c r="A14" t="s">
         <v>124</v>
       </c>
@@ -4663,7 +4965,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="34">
       <c r="A15" t="s">
         <v>125</v>
       </c>
@@ -4674,7 +4976,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17">
       <c r="A16" t="s">
         <v>126</v>
       </c>
@@ -4685,7 +4987,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="34">
       <c r="A17" t="s">
         <v>127</v>
       </c>
@@ -4696,7 +4998,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="17">
       <c r="A18" t="s">
         <v>128</v>
       </c>
@@ -4707,7 +5009,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="17">
       <c r="A19" t="s">
         <v>129</v>
       </c>
@@ -4718,7 +5020,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="17">
       <c r="A20" t="s">
         <v>130</v>
       </c>
@@ -4729,7 +5031,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="34">
       <c r="A21" t="s">
         <v>131</v>
       </c>
@@ -4740,7 +5042,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="34">
       <c r="A22" t="s">
         <v>132</v>
       </c>
@@ -4751,7 +5053,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="34">
       <c r="A23" t="s">
         <v>133</v>
       </c>
@@ -4762,7 +5064,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="34">
       <c r="A24" t="s">
         <v>134</v>
       </c>
@@ -4773,7 +5075,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="51">
       <c r="A25" t="s">
         <v>135</v>
       </c>
@@ -4784,7 +5086,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="34">
       <c r="A26" t="s">
         <v>136</v>
       </c>
@@ -4795,7 +5097,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="136">
       <c r="A27" t="s">
         <v>137</v>
       </c>
@@ -4806,7 +5108,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="17">
       <c r="A28" t="s">
         <v>138</v>
       </c>
@@ -4817,7 +5119,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="34">
       <c r="A29" t="s">
         <v>139</v>
       </c>
@@ -4828,7 +5130,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="17">
       <c r="A30" t="s">
         <v>140</v>
       </c>
@@ -4839,7 +5141,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="17">
       <c r="A31" t="s">
         <v>141</v>
       </c>
@@ -4850,7 +5152,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="34">
       <c r="A32" t="s">
         <v>142</v>
       </c>
@@ -4861,7 +5163,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="17">
       <c r="A33" t="s">
         <v>143</v>
       </c>
@@ -4872,7 +5174,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="34">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -4883,7 +5185,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="51">
       <c r="A35" t="s">
         <v>145</v>
       </c>
@@ -4894,7 +5196,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="34">
       <c r="A36" t="s">
         <v>146</v>
       </c>
@@ -4905,7 +5207,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="34">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -4916,7 +5218,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="34">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -4927,7 +5229,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="34">
       <c r="A39" t="s">
         <v>149</v>
       </c>
@@ -4938,7 +5240,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="34">
       <c r="A40" t="s">
         <v>150</v>
       </c>
@@ -4949,7 +5251,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="34">
       <c r="A41" t="s">
         <v>151</v>
       </c>
@@ -4960,7 +5262,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="34">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -4971,7 +5273,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="34">
       <c r="A43" t="s">
         <v>153</v>
       </c>

--- a/TeamYYZReport.xlsx
+++ b/TeamYYZReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangliu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\CS555-Agille-Methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9976BEB2-7681-DA41-B10D-CABD0FE7A2BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B749C65A-4017-4110-8A5F-0CDD38F4C670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="388">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -227,1044 +229,1179 @@
     <t>Include person's current age when listing individuals</t>
   </si>
   <si>
+    <t>List all living married people in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all multiple births in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+  </si>
+  <si>
+    <t>Story Name</t>
+  </si>
+  <si>
+    <t>Story Description</t>
+  </si>
+  <si>
+    <t>Birth before death</t>
+  </si>
+  <si>
+    <t>Birth before marriage</t>
+  </si>
+  <si>
+    <t>Marriage before divorce</t>
+  </si>
+  <si>
+    <t>Marriage before death</t>
+  </si>
+  <si>
+    <t>Divorce before death</t>
+  </si>
+  <si>
+    <t>Less then 150 years old</t>
+  </si>
+  <si>
+    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
+  </si>
+  <si>
+    <t>Birth before death of parents</t>
+  </si>
+  <si>
+    <t>Child should be born before death of mother and before 9 months after death of father</t>
+  </si>
+  <si>
+    <t>Marriage after 14</t>
+  </si>
+  <si>
+    <t>Parents not too old</t>
+  </si>
+  <si>
+    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
+  </si>
+  <si>
+    <t>Siblings spacing</t>
+  </si>
+  <si>
+    <t>Fewer than 15 siblings</t>
+  </si>
+  <si>
+    <t>Male last names</t>
+  </si>
+  <si>
+    <t>Siblings should not marry</t>
+  </si>
+  <si>
+    <t>First cousins should not marry</t>
+  </si>
+  <si>
+    <t>Aunts and uncles</t>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+  </si>
+  <si>
+    <t>Husband in family should be male and wife in family should be female</t>
+  </si>
+  <si>
+    <t>All individual IDs should be unique and all family IDs should be unique</t>
+  </si>
+  <si>
+    <t>Unique IDs</t>
+  </si>
+  <si>
+    <t>Unique name and birth date</t>
+  </si>
+  <si>
+    <t>Unique families by spouses</t>
+  </si>
+  <si>
+    <t>Unique first names in families</t>
+  </si>
+  <si>
+    <t>Corresponding entries</t>
+  </si>
+  <si>
+    <t>Include individual ages</t>
+  </si>
+  <si>
+    <t>Order siblings by age</t>
+  </si>
+  <si>
+    <t>List deceased</t>
+  </si>
+  <si>
+    <t>List living married</t>
+  </si>
+  <si>
+    <t>List living single</t>
+  </si>
+  <si>
+    <t>List multiple births</t>
+  </si>
+  <si>
+    <t>List orphans</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>List large age differences</t>
+  </si>
+  <si>
+    <t>Story ID</t>
+  </si>
+  <si>
+    <t>US01</t>
+  </si>
+  <si>
+    <t>US02</t>
+  </si>
+  <si>
+    <t>US03</t>
+  </si>
+  <si>
+    <t>US04</t>
+  </si>
+  <si>
+    <t>US05</t>
+  </si>
+  <si>
+    <t>US06</t>
+  </si>
+  <si>
+    <t>US07</t>
+  </si>
+  <si>
+    <t>US08</t>
+  </si>
+  <si>
+    <t>US09</t>
+  </si>
+  <si>
+    <t>US10</t>
+  </si>
+  <si>
+    <t>US11</t>
+  </si>
+  <si>
+    <t>US12</t>
+  </si>
+  <si>
+    <t>US13</t>
+  </si>
+  <si>
+    <t>US14</t>
+  </si>
+  <si>
+    <t>US15</t>
+  </si>
+  <si>
+    <t>US16</t>
+  </si>
+  <si>
+    <t>US17</t>
+  </si>
+  <si>
+    <t>US18</t>
+  </si>
+  <si>
+    <t>US19</t>
+  </si>
+  <si>
+    <t>US20</t>
+  </si>
+  <si>
+    <t>US21</t>
+  </si>
+  <si>
+    <t>US22</t>
+  </si>
+  <si>
+    <t>US23</t>
+  </si>
+  <si>
+    <t>US24</t>
+  </si>
+  <si>
+    <t>US25</t>
+  </si>
+  <si>
+    <t>US26</t>
+  </si>
+  <si>
+    <t>US27</t>
+  </si>
+  <si>
+    <t>US28</t>
+  </si>
+  <si>
+    <t>US29</t>
+  </si>
+  <si>
+    <t>US30</t>
+  </si>
+  <si>
+    <t>US31</t>
+  </si>
+  <si>
+    <t>US32</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Dates before current date</t>
+  </si>
+  <si>
+    <t>Birth before marriage of parents</t>
+  </si>
+  <si>
+    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
+  </si>
+  <si>
+    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
+  </si>
+  <si>
+    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Sprint 1</t>
+  </si>
+  <si>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>Sprint 3</t>
+  </si>
+  <si>
+    <t>Sprint 4</t>
+  </si>
+  <si>
+    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
+  </si>
+  <si>
+    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
+  </si>
+  <si>
+    <t>Here's a sample burndown chart for a team of three:</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+  </si>
+  <si>
+    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
+  </si>
+  <si>
+    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+  </si>
+  <si>
+    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
+  </si>
+  <si>
+    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
+  </si>
+  <si>
+    <t>Parents should not marry any of their children</t>
+  </si>
+  <si>
+    <t>No marriages to children</t>
+  </si>
+  <si>
+    <t>Source File</t>
+  </si>
+  <si>
+    <t>Test File</t>
+  </si>
+  <si>
+    <t>Source Function</t>
+  </si>
+  <si>
+    <t>Source Lines</t>
+  </si>
+  <si>
+    <t>Test Function</t>
+  </si>
+  <si>
+    <t>Test lines</t>
+  </si>
+  <si>
+    <t>Lianghai</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Liu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zhaocong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wang</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lyang42@stevens.edu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>lyang44@stevens.edu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zwang193@stevens.edu</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lianghai-Yang</t>
+  </si>
+  <si>
+    <t>snakeeyes233</t>
+  </si>
+  <si>
+    <t>CS555-Agille-Methods</t>
+  </si>
+  <si>
+    <t>ly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LiuYang3433</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US06</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T06.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T06.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store death date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">T06.03 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T12.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store ages of parents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T12.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sore ages of children</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">T12.03 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare ages between parents and children</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T08.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find marriage record for individual</t>
+  </si>
+  <si>
+    <t>T08.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare marriage date to birth date</t>
+  </si>
+  <si>
+    <t>ly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T30.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T30.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find marriage record for individual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if they divorced or died</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T36.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find death record for individual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T36.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check if they died in 30 days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find marriage record for spouses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Store birth date </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare ages with marriage date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Done</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T10.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T10.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T10.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store divorce date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare divorce and death date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utils.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lists.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ages.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>list_recent_deaths</t>
+  </si>
+  <si>
+    <t>marriage_after_14</t>
+  </si>
+  <si>
+    <t>test_marriage_after_14</t>
+  </si>
+  <si>
+    <t>52-70</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>29-50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-32</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T09.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T09.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare birth date and death date of parents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store birth date and death date of parents</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T02.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store marriage date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T02.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store birth dates of spouse</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T02.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare dates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T31.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store indiviual's age</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T31.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check indiviual's marriage information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T31.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store single's information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T07.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store death date and birth date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T07.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare dates with the number 150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T35.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T35.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check the birth date in recent 30 days</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store informations</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_list_recent_deaths</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keep doing:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Avoid:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US04</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>hy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ly</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coding</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T01.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T01.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T03.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T03.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T04.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T05.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T05.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check date information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare with the current date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check the date of birth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check the date of death</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T03.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare both date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare dates between divore and marriage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store the date of marriage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store the date of death</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T05.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare both dates</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Utils.py</t>
+  </si>
+  <si>
+    <t>birth_before_death_of_parents</t>
+  </si>
+  <si>
+    <t>211-236</t>
+  </si>
+  <si>
+    <t>birth_before_marriage</t>
+  </si>
+  <si>
+    <t>238-247</t>
+  </si>
+  <si>
+    <t>list_living_single</t>
+  </si>
+  <si>
+    <t>137-157</t>
+  </si>
+  <si>
+    <t>less_than_150</t>
+  </si>
+  <si>
+    <t>160-173</t>
+  </si>
+  <si>
+    <t>list_recent_birth</t>
+  </si>
+  <si>
+    <t>175-191</t>
+  </si>
+  <si>
+    <t>list_upcoming_birthdays</t>
+  </si>
+  <si>
+    <t>193-209</t>
+  </si>
+  <si>
+    <t>TestDates.py</t>
+  </si>
+  <si>
+    <t>57-65</t>
+  </si>
+  <si>
+    <t>89-107</t>
+  </si>
+  <si>
+    <t>test_birth_before_marriage</t>
+  </si>
+  <si>
+    <t>TestLists.py</t>
+  </si>
+  <si>
+    <t>40-59</t>
+  </si>
+  <si>
+    <t>test_list_living_single</t>
+  </si>
+  <si>
+    <t>test_less_than_150</t>
+  </si>
+  <si>
+    <t>33-56</t>
+  </si>
+  <si>
+    <t>58-69</t>
+  </si>
+  <si>
+    <t>test_list_recent_birth</t>
+  </si>
+  <si>
+    <t>test_upcoming_birthdays</t>
+  </si>
+  <si>
+    <t>70-82</t>
+  </si>
+  <si>
+    <t>Keep sharing knowledge in program.</t>
+  </si>
+  <si>
+    <t>Try applying new Agile knowledge in team programming.</t>
+  </si>
+  <si>
+    <t>Keep pair programming.</t>
+  </si>
+  <si>
+    <t>Changing meeting  time frequently.</t>
+  </si>
+  <si>
+    <t>Review Results:</t>
+  </si>
+  <si>
+    <t>Sprint2 stories has been done!</t>
+  </si>
+  <si>
+    <t>US29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List deceased</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>List deceased</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T29.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T29.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check the death information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store the information</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>No bigamy</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>US34</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List large age differences</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>T34.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T34.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List large age differences</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store dates of spouses</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>compare husband's age with wife's age</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
-    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
-  </si>
-  <si>
-    <t>Story Name</t>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
-    <t>Birth before death</t>
-  </si>
-  <si>
-    <t>Birth before marriage</t>
-  </si>
-  <si>
-    <t>Marriage before divorce</t>
-  </si>
-  <si>
-    <t>Marriage before death</t>
-  </si>
-  <si>
-    <t>Divorce before death</t>
-  </si>
-  <si>
-    <t>Less then 150 years old</t>
-  </si>
-  <si>
-    <t>Death should be less than 150 years after birth for dead people, and current date should be less than 150 years after birth for all living people</t>
-  </si>
-  <si>
-    <t>Birth before death of parents</t>
-  </si>
-  <si>
-    <t>Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
-    <t>Marriage after 14</t>
-  </si>
-  <si>
-    <t>No bigamy</t>
-  </si>
-  <si>
-    <t>Parents not too old</t>
-  </si>
-  <si>
-    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
-    <t>Siblings spacing</t>
-  </si>
-  <si>
-    <t>Fewer than 15 siblings</t>
-  </si>
-  <si>
-    <t>Male last names</t>
-  </si>
-  <si>
-    <t>Siblings should not marry</t>
-  </si>
-  <si>
-    <t>First cousins should not marry</t>
-  </si>
-  <si>
-    <t>Aunts and uncles</t>
-  </si>
-  <si>
-    <t>Correct gender for role</t>
-  </si>
-  <si>
-    <t>Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
-    <t>All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
-    <t>Unique IDs</t>
-  </si>
-  <si>
-    <t>Unique name and birth date</t>
-  </si>
-  <si>
-    <t>Unique families by spouses</t>
-  </si>
-  <si>
-    <t>Unique first names in families</t>
-  </si>
-  <si>
-    <t>Corresponding entries</t>
-  </si>
-  <si>
-    <t>Include individual ages</t>
-  </si>
-  <si>
-    <t>Order siblings by age</t>
-  </si>
-  <si>
-    <t>List deceased</t>
-  </si>
-  <si>
-    <t>List living married</t>
-  </si>
-  <si>
-    <t>List living single</t>
-  </si>
-  <si>
-    <t>List multiple births</t>
-  </si>
-  <si>
-    <t>List orphans</t>
-  </si>
-  <si>
-    <t>List recent births</t>
-  </si>
-  <si>
-    <t>List recent deaths</t>
-  </si>
-  <si>
-    <t>List recent survivors</t>
-  </si>
-  <si>
-    <t>List upcoming birthdays</t>
-  </si>
-  <si>
-    <t>List upcoming anniversaries</t>
-  </si>
-  <si>
-    <t>Include input line numbers</t>
-  </si>
-  <si>
-    <t>List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>Reject illegitimate dates</t>
-  </si>
-  <si>
-    <t>List large age differences</t>
-  </si>
-  <si>
-    <t>Story ID</t>
-  </si>
-  <si>
-    <t>US01</t>
-  </si>
-  <si>
-    <t>US02</t>
-  </si>
-  <si>
-    <t>US03</t>
-  </si>
-  <si>
-    <t>US04</t>
-  </si>
-  <si>
-    <t>US05</t>
-  </si>
-  <si>
-    <t>US06</t>
-  </si>
-  <si>
-    <t>US07</t>
-  </si>
-  <si>
-    <t>US08</t>
-  </si>
-  <si>
-    <t>US09</t>
-  </si>
-  <si>
-    <t>US10</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>US11</t>
-  </si>
-  <si>
-    <t>US12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>US13</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>US14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>US15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>US16</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>US17</t>
-  </si>
-  <si>
-    <t>US18</t>
-  </si>
-  <si>
-    <t>US19</t>
-  </si>
-  <si>
-    <t>US20</t>
-  </si>
-  <si>
-    <t>US21</t>
-  </si>
-  <si>
-    <t>US22</t>
-  </si>
-  <si>
-    <t>US23</t>
-  </si>
-  <si>
-    <t>US24</t>
-  </si>
-  <si>
-    <t>US25</t>
-  </si>
-  <si>
-    <t>US26</t>
-  </si>
-  <si>
-    <t>US27</t>
-  </si>
-  <si>
-    <t>US28</t>
-  </si>
-  <si>
-    <t>US29</t>
-  </si>
-  <si>
-    <t>US30</t>
-  </si>
-  <si>
-    <t>US31</t>
-  </si>
-  <si>
-    <t>US32</t>
-  </si>
-  <si>
-    <t>US33</t>
-  </si>
-  <si>
-    <t>US34</t>
-  </si>
-  <si>
-    <t>US35</t>
-  </si>
-  <si>
-    <t>US36</t>
-  </si>
-  <si>
-    <t>US37</t>
-  </si>
-  <si>
-    <t>US38</t>
-  </si>
-  <si>
-    <t>US39</t>
-  </si>
-  <si>
-    <t>US40</t>
-  </si>
-  <si>
-    <t>US41</t>
-  </si>
-  <si>
-    <t>US42</t>
-  </si>
-  <si>
-    <t>Dates before current date</t>
-  </si>
-  <si>
-    <t>Birth before marriage of parents</t>
-  </si>
-  <si>
-    <t>The goal of the burndown chart is to help the agile team and customer to understand how the developers are doing</t>
-  </si>
-  <si>
-    <t>to deliver the product.  Burndown charts can be done daily, weekly, at the end of a sprint, or at whatever time interval makes sense.</t>
-  </si>
-  <si>
-    <t>We'll update our burndown chart for the GEDCOM project at the end of each sprint.</t>
-  </si>
-  <si>
-    <t>Sprint</t>
-  </si>
-  <si>
-    <t>Start</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>Sprint 3</t>
-  </si>
-  <si>
-    <t>Sprint 4</t>
-  </si>
-  <si>
-    <t>At the end of each sprint, you should update the number of remaining stories, the LOC written to implement the user stories</t>
-  </si>
-  <si>
-    <t>implemented in this sprint, and the minutes needed to write those lines of code.</t>
-  </si>
-  <si>
-    <t>Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t>Multiple births &lt;= 5</t>
-  </si>
-  <si>
-    <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
-  </si>
-  <si>
-    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T11.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T11.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T15.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T15.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">check the marriage information </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>make sure there is only one spouse during marriage</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check siblings number in a family</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>make sure the number is fewer than 15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T13.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
-    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
-    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
-    <t>Parents should not marry any of their children</t>
-  </si>
-  <si>
-    <t>No marriages to children</t>
-  </si>
-  <si>
-    <t>Source File</t>
-  </si>
-  <si>
-    <t>Test File</t>
-  </si>
-  <si>
-    <t>Source Function</t>
-  </si>
-  <si>
-    <t>Source Lines</t>
-  </si>
-  <si>
-    <t>Test Function</t>
-  </si>
-  <si>
-    <t>Test lines</t>
-  </si>
-  <si>
-    <t>Lianghai</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Liu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zhaocong</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wang</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lyang42@stevens.edu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>lyang44@stevens.edu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zwang193@stevens.edu</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lianghai-Yang</t>
-  </si>
-  <si>
-    <t>snakeeyes233</t>
-  </si>
-  <si>
-    <t>CS555-Agille-Methods</t>
-  </si>
-  <si>
-    <t>ly</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>LiuYang3433</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US30</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ly</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T06.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T06.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store death date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">T06.03 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T12.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store ages of parents</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T12.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sore ages of children</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">T12.03 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare ages between parents and children</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T08.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find marriage record for individual</t>
-  </si>
-  <si>
-    <t>T08.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare marriage date to birth date</t>
-  </si>
-  <si>
-    <t>ly</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T30.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T30.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find marriage record for individual</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check if they divorced or died</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T36.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find death record for individual</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T36.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check if they died in 30 days</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Find marriage record for spouses</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">Store birth date </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare ages with marriage date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Done</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T10.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T10.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T10.03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store divorce date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare divorce and death date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Utils.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lists.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ages.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>list_recent_deaths</t>
-  </si>
-  <si>
-    <t>marriage_after_14</t>
-  </si>
-  <si>
-    <t>test_marriage_after_14</t>
-  </si>
-  <si>
-    <t>52-70</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>29-50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1-32</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US09</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ly</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US07</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US38</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T09.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T09.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare birth date and death date of parents</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store birth date and death date of parents</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T02.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store marriage date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T02.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store birth dates of spouse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T02.03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare dates</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T31.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store indiviual's age</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T31.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check indiviual's marriage information</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T31.03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store single's information</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T07.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store death date and birth date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T07.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare dates with the number 150</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T35.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T35.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check the birth date in recent 30 days</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store informations</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>test_list_recent_deaths</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keep doing:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Avoid:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US04</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US08</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>hy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ly</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>zw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coding</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coding</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T01.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T01.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T03.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T03.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T04.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T05.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T05.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T08.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T08.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T11.01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T11.02</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check date information</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare with the current date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check the date of birth</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check the date of death</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T03.03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare both date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare dates between divore and marriage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store the date of marriage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store the date of death</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T05.03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Compare both dates</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store the date of child's birth</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Store the date of parent's marriage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>T08.03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Check the spouse</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Make sure someone only have one spouse during the marriage</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Utils.py</t>
-  </si>
-  <si>
-    <t>birth_before_death_of_parents</t>
-  </si>
-  <si>
-    <t>211-236</t>
-  </si>
-  <si>
-    <t>birth_before_marriage</t>
-  </si>
-  <si>
-    <t>238-247</t>
-  </si>
-  <si>
-    <t>list_living_single</t>
-  </si>
-  <si>
-    <t>137-157</t>
-  </si>
-  <si>
-    <t>less_than_150</t>
-  </si>
-  <si>
-    <t>160-173</t>
-  </si>
-  <si>
-    <t>list_recent_birth</t>
-  </si>
-  <si>
-    <t>175-191</t>
-  </si>
-  <si>
-    <t>list_upcoming_birthdays</t>
-  </si>
-  <si>
-    <t>193-209</t>
-  </si>
-  <si>
-    <t>TestDates.py</t>
-  </si>
-  <si>
-    <t>57-65</t>
-  </si>
-  <si>
-    <t>89-107</t>
-  </si>
-  <si>
-    <t>test_birth_before_marriage</t>
-  </si>
-  <si>
-    <t>TestLists.py</t>
-  </si>
-  <si>
-    <t>40-59</t>
-  </si>
-  <si>
-    <t>test_list_living_single</t>
-  </si>
-  <si>
-    <t>test_less_than_150</t>
-  </si>
-  <si>
-    <t>33-56</t>
-  </si>
-  <si>
-    <t>58-69</t>
-  </si>
-  <si>
-    <t>test_list_recent_birth</t>
-  </si>
-  <si>
-    <t>test_upcoming_birthdays</t>
-  </si>
-  <si>
-    <t>70-82</t>
-  </si>
-  <si>
-    <t>Keep sharing knowledge in program.</t>
-  </si>
-  <si>
-    <t>Try applying new Agile knowledge in team programming.</t>
-  </si>
-  <si>
-    <t>Keep pair programming.</t>
-  </si>
-  <si>
-    <t>Changing meeting  time frequently.</t>
-  </si>
-  <si>
-    <t>Review Results:</t>
-  </si>
-  <si>
-    <t>Sprint2 stories has been done!</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Check birth dates of siblings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T13.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare each dates to make sure they meet requirements</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T16.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T16.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Compare each last name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store all last names of male members in a family</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T14.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T14.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Store birth dates of siblings</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Make sure there are less than 5 siblings born in a same time</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T17.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Store marriage information of a family </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T17.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check the spouse can't be their children</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1272,10 +1409,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1430,20 +1567,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1451,7 +1588,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1484,72 +1621,72 @@
     </xf>
   </cellXfs>
   <cellStyles count="66">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="65" xr:uid="{2793029F-823E-4C2B-BEB7-439A2289C590}"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1567,7 +1704,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1591,7 +1728,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1662,7 +1799,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1704,7 +1841,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1739,6 +1876,9 @@
                 <c:pt idx="2">
                   <c:v>42289</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>42303</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1756,6 +1896,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2649,16 +2792,16 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.875" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2675,63 +2818,63 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="E3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C5" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" s="20" t="s">
+      <c r="D5" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E5" t="s">
         <v>188</v>
       </c>
-      <c r="E4" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="19" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="E5" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -2749,22 +2892,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B20" sqref="B20:C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2781,310 +2924,412 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D2" s="19" t="s">
-        <v>198</v>
-      </c>
       <c r="E2" s="19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="19" t="s">
         <v>197</v>
       </c>
-      <c r="C5" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>200</v>
-      </c>
       <c r="E5" s="19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C14" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>290</v>
-      </c>
       <c r="E15" s="19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="C16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>291</v>
-      </c>
       <c r="E16" s="19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>288</v>
+        <v>341</v>
       </c>
       <c r="C18" t="s">
-        <v>155</v>
+        <v>94</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>289</v>
+        <v>349</v>
       </c>
       <c r="C19" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>293</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="C21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>4</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>4</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="C24" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="C25" t="s">
+        <v>172</v>
+      </c>
+      <c r="D25" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3102,49 +3347,49 @@
       <selection activeCell="E3" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="10.875" style="7"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="7" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="7" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
-      <c r="A14" s="4" t="s">
-        <v>159</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -3165,9 +3410,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" s="13">
         <v>41065</v>
@@ -3181,9 +3426,9 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B16" s="13">
         <v>41078</v>
@@ -3206,9 +3451,9 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B17" s="13">
         <v>41092</v>
@@ -3231,9 +3476,9 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B18" s="13">
         <v>41106</v>
@@ -3256,9 +3501,9 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B19" s="13">
         <v>41120</v>
@@ -3291,23 +3536,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3327,7 +3572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42261</v>
       </c>
@@ -3338,7 +3583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42275</v>
       </c>
@@ -3358,7 +3603,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42289</v>
       </c>
@@ -3376,6 +3621,17 @@
       </c>
       <c r="F4" s="9">
         <v>4.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>42303</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3390,31 +3646,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="51.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="51.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" style="17" customWidth="1"/>
+    <col min="12" max="12" width="22.375" style="17" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.6640625" style="17" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.875" style="17" customWidth="1"/>
+    <col min="15" max="15" width="10.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.625" style="17" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3443,36 +3699,36 @@
         <v>17</v>
       </c>
       <c r="K1" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="O1" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q1" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="M1" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -3487,54 +3743,54 @@
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="14">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="14">
-      <c r="A5" s="19" t="s">
+      <c r="B6" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>205</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="14">
-      <c r="A6" s="19" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="19"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E8">
         <v>200</v>
@@ -3549,57 +3805,57 @@
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
     </row>
-    <row r="10" spans="1:17" ht="14">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>209</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="C11" s="19" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>210</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:17" ht="14">
-      <c r="A11" s="19" t="s">
+      <c r="B12" s="21" t="s">
         <v>211</v>
       </c>
-      <c r="B11" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="14">
-      <c r="A12" s="19" t="s">
-        <v>213</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>214</v>
-      </c>
       <c r="C12" s="19" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="21"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E14">
         <v>200</v>
@@ -3608,47 +3864,47 @@
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="14">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B16" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>216</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>219</v>
       </c>
       <c r="D16" s="19"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:17" ht="14">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="23"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D19" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E19">
         <v>150</v>
@@ -3657,46 +3913,46 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20" s="19"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:17" ht="14">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="D21" s="19"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22" s="21" t="s">
         <v>220</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="1:17" ht="14">
-      <c r="A22" s="19" t="s">
-        <v>221</v>
-      </c>
-      <c r="B22" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="21"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:17" ht="15">
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B24" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E24">
         <v>200</v>
@@ -3714,63 +3970,63 @@
         <v>42275</v>
       </c>
       <c r="K24" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="L24" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="L24" s="24" t="s">
+      <c r="M24" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="M24" s="18" t="s">
-        <v>244</v>
-      </c>
       <c r="O24" s="18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P24" s="24" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q24" s="25" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25" s="19"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:17" ht="14">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" s="19" t="s">
+        <v>223</v>
+      </c>
+      <c r="B27" s="21" t="s">
         <v>224</v>
       </c>
-      <c r="B26" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="14">
-      <c r="A27" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>227</v>
-      </c>
       <c r="C27" s="19" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="15">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D29" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E29">
         <v>150</v>
@@ -3788,74 +4044,74 @@
         <v>42274</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L29" s="24" t="s">
+        <v>239</v>
+      </c>
+      <c r="M29" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="M29" s="18" t="s">
-        <v>245</v>
-      </c>
       <c r="O29" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="P29" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="P29" s="24" t="s">
-        <v>243</v>
-      </c>
       <c r="Q29" s="18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="C30" s="19"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:17" ht="14">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D31" s="19"/>
     </row>
-    <row r="32" spans="1:17" ht="14">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
         <v>32</v>
       </c>
@@ -3871,21 +4127,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="43.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.375" customWidth="1"/>
     <col min="12" max="12" width="16.5" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
-    <col min="14" max="14" width="35.1640625" customWidth="1"/>
+    <col min="14" max="14" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3914,36 +4170,36 @@
         <v>17</v>
       </c>
       <c r="J1" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="M1" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>178</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>180</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E2">
         <v>40</v>
@@ -3958,70 +4214,70 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
+        <v>308</v>
+      </c>
+      <c r="J2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K2" t="s">
+        <v>310</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="M2" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="J2" t="s">
+      <c r="N2" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="O2" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="K2" t="s">
-        <v>324</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>257</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>260</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="O6" s="19"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -4036,79 +4292,79 @@
         <v>30</v>
       </c>
       <c r="I7" t="s">
+        <v>308</v>
+      </c>
+      <c r="J7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="M7" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="J7" t="s">
-        <v>323</v>
-      </c>
-      <c r="K7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="M7" s="19" t="s">
-        <v>336</v>
-      </c>
       <c r="N7" s="19" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B10" s="19" t="s">
         <v>261</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>264</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E13">
         <v>50</v>
@@ -4123,80 +4379,80 @@
         <v>40</v>
       </c>
       <c r="I13" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="J13" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="K13" t="s">
+        <v>314</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="N13" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="L13" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="M13" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>342</v>
-      </c>
       <c r="O13" s="19" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E19">
         <v>40</v>
@@ -4211,64 +4467,64 @@
         <v>30</v>
       </c>
       <c r="I19" t="s">
+        <v>308</v>
+      </c>
+      <c r="J19" t="s">
+        <v>309</v>
+      </c>
+      <c r="K19" t="s">
+        <v>316</v>
+      </c>
+      <c r="L19" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="M19" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="J19" t="s">
-        <v>323</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="N19" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="O19" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="L19" s="19" t="s">
-        <v>331</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="N19" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="O19" s="19" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:15" ht="16.5" customHeight="1">
+    <row r="23" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E23">
         <v>30</v>
@@ -4283,69 +4539,69 @@
         <v>40</v>
       </c>
       <c r="I23" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="J23" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="K23" t="s">
+        <v>318</v>
+      </c>
+      <c r="L23" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="N23" s="19" t="s">
         <v>332</v>
       </c>
-      <c r="L23" s="19" t="s">
-        <v>333</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="N23" s="19" t="s">
-        <v>346</v>
-      </c>
       <c r="O23" s="19" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="16.5" customHeight="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
     </row>
-    <row r="25" spans="1:15" ht="16.5" customHeight="1">
+    <row r="25" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
     </row>
-    <row r="26" spans="1:15" ht="16.5" customHeight="1">
+    <row r="26" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
     </row>
-    <row r="27" spans="1:15" ht="16.5" customHeight="1">
+    <row r="27" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E28">
         <v>60</v>
@@ -4360,61 +4616,61 @@
         <v>30</v>
       </c>
       <c r="I28" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="J28" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="K28" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="L28" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="M28" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="N28" s="19" t="s">
+        <v>333</v>
+      </c>
+      <c r="O28" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="L28" s="19" t="s">
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="B31" s="19" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="B34" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="M28" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="N28" s="19" t="s">
-        <v>347</v>
-      </c>
-      <c r="O28" s="19" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="14">
-      <c r="A31" s="27" t="s">
-        <v>353</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14">
-      <c r="A34" s="27" t="s">
-        <v>282</v>
-      </c>
-      <c r="B34" s="26" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
       <c r="B35" s="19" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="19" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -4428,16 +4684,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4466,18 +4722,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -4486,43 +4742,43 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="B6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>285</v>
       </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C6" s="19" t="s">
-        <v>290</v>
-      </c>
       <c r="D6" s="19" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -4531,53 +4787,53 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="19" t="s">
         <v>286</v>
       </c>
-      <c r="B11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>291</v>
-      </c>
       <c r="D11" s="19" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -4586,38 +4842,38 @@
         <v>110</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -4626,49 +4882,49 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="B20" t="s">
-        <v>155</v>
+        <v>341</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>343</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E20">
         <v>50</v>
@@ -4677,50 +4933,46 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>302</v>
+        <v>344</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>303</v>
+        <v>345</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
+        <v>349</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D25" s="19" t="s">
         <v>289</v>
-      </c>
-      <c r="B25" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>294</v>
       </c>
       <c r="E25">
         <v>50</v>
@@ -4729,20 +4981,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>304</v>
+        <v>351</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>305</v>
+        <v>352</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -4754,15 +5006,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="51.375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28">
+    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4789,6 +5044,249 @@
       </c>
       <c r="I1" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E2">
+        <v>50</v>
+      </c>
+      <c r="F2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>364</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>360</v>
+      </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E6">
+        <v>50</v>
+      </c>
+      <c r="F6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>370</v>
+      </c>
+      <c r="C8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="19"/>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" s="19"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="19"/>
+      <c r="C13" s="19"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+      <c r="F14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>377</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="C16" s="19"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="19"/>
+      <c r="C17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
+        <v>359</v>
+      </c>
+      <c r="B18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D18" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E18">
+        <v>50</v>
+      </c>
+      <c r="F18">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="19"/>
+      <c r="C21" s="19"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="B22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="E22">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -4801,487 +5299,487 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="14">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="34">
-      <c r="A2" t="s">
-        <v>112</v>
+    </row>
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17">
-      <c r="A3" t="s">
-        <v>113</v>
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17">
-      <c r="A4" t="s">
-        <v>114</v>
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34">
-      <c r="A5" t="s">
-        <v>115</v>
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>113</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17">
-      <c r="A6" t="s">
-        <v>116</v>
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17">
-      <c r="A7" t="s">
-        <v>117</v>
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51">
-      <c r="A8" t="s">
+    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="12" t="s">
+      <c r="B10" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="34">
-      <c r="A9" t="s">
+      <c r="C10" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="B9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="34">
-      <c r="A10" t="s">
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="34">
-      <c r="A11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="34">
-      <c r="A12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B12" t="s">
-        <v>77</v>
+      <c r="B12" s="19" t="s">
+        <v>348</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51">
-      <c r="A13" t="s">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="B13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="68">
-      <c r="A14" t="s">
-        <v>124</v>
-      </c>
-      <c r="B14" t="s">
-        <v>80</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="34">
-      <c r="A15" t="s">
-        <v>125</v>
-      </c>
       <c r="B15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="17">
-      <c r="A16" t="s">
-        <v>126</v>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C16" s="12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34">
-      <c r="A17" t="s">
-        <v>127</v>
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C17" s="12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17">
-      <c r="A18" t="s">
-        <v>128</v>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="B18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C21" s="12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>132</v>
       </c>
-      <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="34">
-      <c r="A23" t="s">
-        <v>133</v>
-      </c>
-      <c r="B23" t="s">
-        <v>89</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="B24" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="34">
-      <c r="A24" t="s">
-        <v>134</v>
-      </c>
-      <c r="B24" t="s">
-        <v>90</v>
       </c>
       <c r="C24" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C25" s="12" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B26" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C26" s="12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="136">
+    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B27" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="17">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C28" s="12" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B31" t="s">
         <v>95</v>
       </c>
-      <c r="C29" s="12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="17">
-      <c r="A30" t="s">
+      <c r="C31" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B32" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="17">
-      <c r="A31" t="s">
+      <c r="C32" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>141</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="34">
-      <c r="A32" t="s">
+      <c r="C33" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>142</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B34" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="17">
-      <c r="A33" t="s">
+      <c r="C34" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B35" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B36" t="s">
         <v>99</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="34">
-      <c r="A34" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C36" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="B37" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="51">
-      <c r="A35" t="s">
-        <v>145</v>
-      </c>
-      <c r="B35" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="34">
-      <c r="A36" t="s">
+      <c r="C37" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>146</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B38" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="34">
-      <c r="A37" t="s">
+      <c r="C38" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B39" t="s">
         <v>102</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="34">
-      <c r="A38" t="s">
+      <c r="C39" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>148</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B40" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="34">
-      <c r="A39" t="s">
+      <c r="C40" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>149</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B41" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="34">
-      <c r="A40" t="s">
+      <c r="C41" s="12" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>150</v>
       </c>
-      <c r="B40" t="s">
-        <v>105</v>
-      </c>
-      <c r="C40" s="12" t="s">
+      <c r="B42" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34">
-      <c r="A41" t="s">
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>151</v>
       </c>
-      <c r="B41" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="12" t="s">
+      <c r="B43" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="34">
-      <c r="A42" t="s">
-        <v>152</v>
-      </c>
-      <c r="B42" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="12" t="s">
+      <c r="C43" s="12" t="s">
         <v>63</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="34">
-      <c r="A43" t="s">
-        <v>153</v>
-      </c>
-      <c r="B43" t="s">
-        <v>109</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/TeamYYZReport.xlsx
+++ b/TeamYYZReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\CS555-Agille-Methods\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silas/Documents/my-stevens-course/CS-555/HW/Parser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B749C65A-4017-4110-8A5F-0CDD38F4C670}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EE5D20-E5CD-2C40-84FD-108A9147227B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,9 +31,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="392">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1402,6 +1400,18 @@
   <si>
     <t>check the spouse can't be their children</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sprint3 stories has been done!</t>
+  </si>
+  <si>
+    <t>Keep refactoring the code</t>
+  </si>
+  <si>
+    <t>Trying to add CI/CD in Github</t>
+  </si>
+  <si>
+    <t>Avoid forgetting to test</t>
   </si>
 </sst>
 </file>
@@ -1409,10 +1419,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="176" formatCode="m/d"/>
-    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="m/d"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1567,20 +1577,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1588,7 +1598,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1621,72 +1631,72 @@
     </xf>
   </cellXfs>
   <cellStyles count="66">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="65" xr:uid="{2793029F-823E-4C2B-BEB7-439A2289C590}"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1704,7 +1714,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1728,7 +1738,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1799,7 +1809,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1841,7 +1851,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2792,16 +2802,16 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="21.875" customWidth="1"/>
+    <col min="4" max="4" width="21.83203125" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2818,7 +2828,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="19" t="s">
         <v>195</v>
       </c>
@@ -2835,7 +2845,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="19" t="s">
         <v>190</v>
       </c>
@@ -2852,7 +2862,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="19" t="s">
         <v>196</v>
       </c>
@@ -2869,7 +2879,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2895,19 +2905,19 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:C25"/>
+      <selection activeCell="B2" sqref="B2:B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="7.6640625" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="6.625" customWidth="1"/>
-    <col min="5" max="5" width="7.625" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -2924,7 +2934,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2941,7 +2951,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2958,7 +2968,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2975,7 +2985,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2992,7 +3002,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3009,7 +3019,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3026,7 +3036,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>2</v>
       </c>
@@ -3043,7 +3053,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>2</v>
       </c>
@@ -3060,7 +3070,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>2</v>
       </c>
@@ -3077,7 +3087,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3094,7 +3104,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3111,7 +3121,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3128,7 +3138,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3145,7 +3155,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3162,7 +3172,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3179,7 +3189,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>3</v>
       </c>
@@ -3196,7 +3206,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>3</v>
       </c>
@@ -3213,7 +3223,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>3</v>
       </c>
@@ -3230,7 +3240,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>4</v>
       </c>
@@ -3247,7 +3257,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>4</v>
       </c>
@@ -3264,7 +3274,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5">
       <c r="A22">
         <v>4</v>
       </c>
@@ -3281,7 +3291,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5">
       <c r="A23">
         <v>4</v>
       </c>
@@ -3298,7 +3308,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5">
       <c r="A24">
         <v>4</v>
       </c>
@@ -3315,7 +3325,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5">
       <c r="A25">
         <v>4</v>
       </c>
@@ -3344,50 +3354,50 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E2:E3"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="7"/>
+    <col min="1" max="1" width="10.83203125" style="7"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="7" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="7" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="7" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1">
       <c r="A14" s="4" t="s">
         <v>157</v>
       </c>
@@ -3410,7 +3420,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>158</v>
       </c>
@@ -3426,7 +3436,7 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>159</v>
       </c>
@@ -3451,7 +3461,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="7" t="s">
         <v>160</v>
       </c>
@@ -3476,7 +3486,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="7" t="s">
         <v>161</v>
       </c>
@@ -3501,7 +3511,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="7" t="s">
         <v>162</v>
       </c>
@@ -3539,20 +3549,20 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="16.625" customWidth="1"/>
-    <col min="3" max="3" width="16.375" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="2"/>
+    <col min="2" max="2" width="16.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3572,7 +3582,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>42261</v>
       </c>
@@ -3583,7 +3593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>42275</v>
       </c>
@@ -3597,13 +3607,14 @@
         <v>500</v>
       </c>
       <c r="E3">
-        <v>3440</v>
+        <v>340</v>
       </c>
       <c r="F3" s="9">
-        <v>6.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" ref="F3:F4" si="0">(D3-D2)/E3*60</f>
+        <v>88.235294117647072</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>42289</v>
       </c>
@@ -3614,16 +3625,17 @@
         <v>6</v>
       </c>
       <c r="D4">
-        <v>281</v>
+        <v>781</v>
       </c>
       <c r="E4">
-        <v>1200</v>
+        <v>200</v>
       </c>
       <c r="F4" s="9">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>84.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>42303</v>
       </c>
@@ -3632,6 +3644,17 @@
       </c>
       <c r="C5">
         <v>6</v>
+      </c>
+      <c r="D5">
+        <f>344+781</f>
+        <v>1125</v>
+      </c>
+      <c r="E5">
+        <v>310</v>
+      </c>
+      <c r="F5" s="9">
+        <f>(D5-D4)/E5*60</f>
+        <v>66.58064516129032</v>
       </c>
     </row>
   </sheetData>
@@ -3646,31 +3669,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="51.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="12.875" customWidth="1"/>
-    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.375" style="17" customWidth="1"/>
+    <col min="12" max="12" width="22.33203125" style="17" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.875" style="17" customWidth="1"/>
-    <col min="15" max="15" width="10.125" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.625" style="17" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
+    <col min="15" max="15" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.6640625" style="17" customWidth="1"/>
+    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="14">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3717,7 +3740,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="19" t="s">
         <v>199</v>
       </c>
@@ -3735,6 +3758,9 @@
       </c>
       <c r="F2">
         <v>60</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
       </c>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
@@ -3743,7 +3769,7 @@
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="14">
       <c r="A4" s="19" t="s">
         <v>201</v>
       </c>
@@ -3754,7 +3780,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="14">
       <c r="A5" s="19" t="s">
         <v>202</v>
       </c>
@@ -3765,7 +3791,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="14">
       <c r="A6" s="19" t="s">
         <v>204</v>
       </c>
@@ -3776,10 +3802,10 @@
         <v>205</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="C7" s="19"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="19" t="s">
         <v>193</v>
       </c>
@@ -3797,6 +3823,9 @@
       </c>
       <c r="F8">
         <v>120</v>
+      </c>
+      <c r="H8">
+        <v>50</v>
       </c>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
@@ -3805,7 +3834,7 @@
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="14">
       <c r="A10" s="19" t="s">
         <v>206</v>
       </c>
@@ -3817,7 +3846,7 @@
       </c>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="14">
       <c r="A11" s="19" t="s">
         <v>208</v>
       </c>
@@ -3828,7 +3857,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="14">
       <c r="A12" s="19" t="s">
         <v>210</v>
       </c>
@@ -3839,12 +3868,12 @@
         <v>205</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="19"/>
       <c r="B13" s="21"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" t="s">
         <v>117</v>
       </c>
@@ -3863,8 +3892,11 @@
       <c r="F14">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="14">
       <c r="A16" s="19" t="s">
         <v>212</v>
       </c>
@@ -3877,7 +3909,7 @@
       <c r="D16" s="19"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="14">
       <c r="A17" s="19" t="s">
         <v>214</v>
       </c>
@@ -3888,12 +3920,12 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17">
       <c r="A18" s="19"/>
       <c r="B18" s="23"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17">
       <c r="A19" s="19" t="s">
         <v>194</v>
       </c>
@@ -3912,14 +3944,17 @@
       <c r="F19">
         <v>120</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20" s="19"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="14">
       <c r="A21" s="19" t="s">
         <v>217</v>
       </c>
@@ -3928,7 +3963,7 @@
       </c>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="14">
       <c r="A22" s="19" t="s">
         <v>218</v>
       </c>
@@ -3936,12 +3971,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17">
       <c r="A23" s="19"/>
       <c r="B23" s="21"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="15">
       <c r="A24" t="s">
         <v>145</v>
       </c>
@@ -3988,12 +4023,12 @@
         <v>243</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17">
       <c r="B25"/>
       <c r="C25" s="19"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="14">
       <c r="A26" s="19" t="s">
         <v>221</v>
       </c>
@@ -4004,7 +4039,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="14">
       <c r="A27" s="19" t="s">
         <v>223</v>
       </c>
@@ -4015,7 +4050,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="15">
       <c r="A29" t="s">
         <v>119</v>
       </c>
@@ -4062,12 +4097,12 @@
         <v>244</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17">
       <c r="B30"/>
       <c r="C30" s="19"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="14">
       <c r="A31" s="19" t="s">
         <v>230</v>
       </c>
@@ -4079,7 +4114,7 @@
       </c>
       <c r="D31" s="19"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="14">
       <c r="A32" s="19" t="s">
         <v>231</v>
       </c>
@@ -4090,7 +4125,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="14">
       <c r="A33" s="19" t="s">
         <v>232</v>
       </c>
@@ -4101,17 +4136,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="14">
       <c r="B38" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="14">
       <c r="B40" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="14">
       <c r="B42" s="5" t="s">
         <v>32</v>
       </c>
@@ -4127,21 +4162,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A18" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="20.625" customWidth="1"/>
-    <col min="2" max="2" width="43.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.375" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.33203125" customWidth="1"/>
     <col min="12" max="12" width="16.5" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
-    <col min="14" max="14" width="35.125" customWidth="1"/>
+    <col min="14" max="14" width="35.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="14">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -4188,7 +4223,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="19" t="s">
         <v>245</v>
       </c>
@@ -4235,12 +4270,12 @@
         <v>323</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" s="19" t="s">
         <v>254</v>
       </c>
@@ -4250,7 +4285,7 @@
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" s="19" t="s">
         <v>255</v>
       </c>
@@ -4260,13 +4295,13 @@
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="O6" s="19"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" s="19" t="s">
         <v>249</v>
       </c>
@@ -4313,12 +4348,12 @@
         <v>324</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" s="19" t="s">
         <v>260</v>
       </c>
@@ -4328,7 +4363,7 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" s="19" t="s">
         <v>258</v>
       </c>
@@ -4338,7 +4373,7 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" s="19" t="s">
         <v>262</v>
       </c>
@@ -4348,12 +4383,12 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" s="19" t="s">
         <v>250</v>
       </c>
@@ -4400,12 +4435,12 @@
         <v>327</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" s="19" t="s">
         <v>264</v>
       </c>
@@ -4415,7 +4450,7 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" s="19" t="s">
         <v>266</v>
       </c>
@@ -4425,7 +4460,7 @@
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" s="19" t="s">
         <v>268</v>
       </c>
@@ -4435,13 +4470,13 @@
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" s="19" t="s">
         <v>251</v>
       </c>
@@ -4488,7 +4523,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" s="19" t="s">
         <v>270</v>
       </c>
@@ -4498,7 +4533,7 @@
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" s="19" t="s">
         <v>272</v>
       </c>
@@ -4508,12 +4543,12 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="16.5" customHeight="1">
       <c r="A23" s="19" t="s">
         <v>252</v>
       </c>
@@ -4560,7 +4595,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="16.5" customHeight="1">
       <c r="A24" s="19" t="s">
         <v>274</v>
       </c>
@@ -4570,7 +4605,7 @@
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
     </row>
-    <row r="25" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="16.5" customHeight="1">
       <c r="A25" s="19" t="s">
         <v>275</v>
       </c>
@@ -4580,17 +4615,17 @@
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
     </row>
-    <row r="26" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="16.5" customHeight="1">
       <c r="A26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
     </row>
-    <row r="27" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="16.5" customHeight="1">
       <c r="A27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" s="19" t="s">
         <v>253</v>
       </c>
@@ -4637,7 +4672,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="14">
       <c r="A31" s="27" t="s">
         <v>339</v>
       </c>
@@ -4645,7 +4680,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="14">
       <c r="A34" s="27" t="s">
         <v>279</v>
       </c>
@@ -4653,19 +4688,19 @@
         <v>335</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35" s="26"/>
       <c r="B35" s="19" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36" s="4"/>
       <c r="B36" s="19" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
         <v>280</v>
       </c>
@@ -4682,18 +4717,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="50.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="14">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4722,7 +4757,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="19" t="s">
         <v>281</v>
       </c>
@@ -4741,8 +4776,17 @@
       <c r="F2">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <v>72</v>
+      </c>
+      <c r="H2">
+        <v>60</v>
+      </c>
+      <c r="I2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="19" t="s">
         <v>290</v>
       </c>
@@ -4752,7 +4796,7 @@
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="19" t="s">
         <v>291</v>
       </c>
@@ -4762,12 +4806,12 @@
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="19" t="s">
         <v>282</v>
       </c>
@@ -4786,8 +4830,17 @@
       <c r="F6">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <v>71</v>
+      </c>
+      <c r="H6">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="19" t="s">
         <v>292</v>
       </c>
@@ -4797,7 +4850,7 @@
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="19" t="s">
         <v>293</v>
       </c>
@@ -4807,7 +4860,7 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="19" t="s">
         <v>301</v>
       </c>
@@ -4817,12 +4870,12 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="19" t="s">
         <v>283</v>
       </c>
@@ -4841,8 +4894,17 @@
       <c r="F11">
         <v>110</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>60</v>
+      </c>
+      <c r="H11">
+        <v>40</v>
+      </c>
+      <c r="I11" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="19" t="s">
         <v>294</v>
       </c>
@@ -4852,17 +4914,17 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="19" t="s">
         <v>284</v>
       </c>
@@ -4881,8 +4943,17 @@
       <c r="F15">
         <v>70</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <v>68</v>
+      </c>
+      <c r="H15">
+        <v>60</v>
+      </c>
+      <c r="I15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="19" t="s">
         <v>295</v>
       </c>
@@ -4892,7 +4963,7 @@
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9">
       <c r="A17" s="19" t="s">
         <v>296</v>
       </c>
@@ -4902,7 +4973,7 @@
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9">
       <c r="A18" s="19" t="s">
         <v>306</v>
       </c>
@@ -4910,10 +4981,10 @@
         <v>307</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9">
       <c r="A19" s="19"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9">
       <c r="A20" s="19" t="s">
         <v>341</v>
       </c>
@@ -4932,8 +5003,17 @@
       <c r="F20">
         <v>80</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <v>42</v>
+      </c>
+      <c r="H20">
+        <v>50</v>
+      </c>
+      <c r="I20" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="19" t="s">
         <v>344</v>
       </c>
@@ -4943,7 +5023,7 @@
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9">
       <c r="A22" s="19" t="s">
         <v>345</v>
       </c>
@@ -4953,15 +5033,15 @@
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9">
       <c r="A25" s="19" t="s">
         <v>349</v>
       </c>
@@ -4980,8 +5060,17 @@
       <c r="F25">
         <v>100</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <v>31</v>
+      </c>
+      <c r="H25">
+        <v>60</v>
+      </c>
+      <c r="I25" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="19" t="s">
         <v>351</v>
       </c>
@@ -4989,12 +5078,48 @@
         <v>354</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9">
       <c r="A27" s="19" t="s">
         <v>352</v>
       </c>
       <c r="B27" s="19" t="s">
         <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="28">
+      <c r="A30" s="27" t="s">
+        <v>339</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="28">
+      <c r="A33" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="26"/>
+      <c r="B34" s="19" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="4"/>
+      <c r="B35" s="19" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -5009,15 +5134,15 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="51.375" customWidth="1"/>
+    <col min="2" max="2" width="51.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="14">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -5046,7 +5171,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="19" t="s">
         <v>357</v>
       </c>
@@ -5066,7 +5191,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="19" t="s">
         <v>363</v>
       </c>
@@ -5075,7 +5200,7 @@
       </c>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="19" t="s">
         <v>364</v>
       </c>
@@ -5084,12 +5209,12 @@
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="19" t="s">
         <v>360</v>
       </c>
@@ -5109,7 +5234,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="19" t="s">
         <v>365</v>
       </c>
@@ -5118,7 +5243,7 @@
       </c>
       <c r="C7" s="19"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="19" t="s">
         <v>366</v>
       </c>
@@ -5127,11 +5252,11 @@
       </c>
       <c r="C8" s="19"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="19"/>
       <c r="C9" s="19"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="A10" s="19" t="s">
         <v>358</v>
       </c>
@@ -5151,7 +5276,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9">
       <c r="A11" s="19" t="s">
         <v>371</v>
       </c>
@@ -5159,7 +5284,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9">
       <c r="A12" s="19" t="s">
         <v>374</v>
       </c>
@@ -5168,11 +5293,11 @@
       </c>
       <c r="C12" s="19"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9">
       <c r="A13" s="19"/>
       <c r="C13" s="19"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="A14" s="19" t="s">
         <v>361</v>
       </c>
@@ -5192,7 +5317,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9">
       <c r="A15" s="19" t="s">
         <v>376</v>
       </c>
@@ -5200,7 +5325,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9">
       <c r="A16" s="19" t="s">
         <v>377</v>
       </c>
@@ -5209,11 +5334,11 @@
       </c>
       <c r="C16" s="19"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" s="19"/>
       <c r="C17" s="19"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" s="19" t="s">
         <v>359</v>
       </c>
@@ -5233,7 +5358,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" s="19" t="s">
         <v>380</v>
       </c>
@@ -5241,7 +5366,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" s="19" t="s">
         <v>381</v>
       </c>
@@ -5249,11 +5374,11 @@
         <v>383</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" s="19"/>
       <c r="C21" s="19"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" s="19" t="s">
         <v>362</v>
       </c>
@@ -5273,7 +5398,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6">
       <c r="A23" s="19" t="s">
         <v>384</v>
       </c>
@@ -5281,7 +5406,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6">
       <c r="A24" s="19" t="s">
         <v>386</v>
       </c>
@@ -5299,17 +5424,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="14">
       <c r="A1" s="4" t="s">
         <v>109</v>
       </c>
@@ -5320,7 +5445,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="34">
       <c r="A2" s="4" t="s">
         <v>110</v>
       </c>
@@ -5331,7 +5456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="17">
       <c r="A3" s="4" t="s">
         <v>111</v>
       </c>
@@ -5342,7 +5467,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="17">
       <c r="A4" s="4" t="s">
         <v>112</v>
       </c>
@@ -5353,7 +5478,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="34">
       <c r="A5" s="4" t="s">
         <v>113</v>
       </c>
@@ -5364,7 +5489,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="17">
       <c r="A6" s="4" t="s">
         <v>114</v>
       </c>
@@ -5375,7 +5500,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="17">
       <c r="A7" s="4" t="s">
         <v>115</v>
       </c>
@@ -5386,7 +5511,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="51">
       <c r="A8" s="4" t="s">
         <v>116</v>
       </c>
@@ -5397,7 +5522,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="34">
       <c r="A9" s="4" t="s">
         <v>117</v>
       </c>
@@ -5408,7 +5533,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="34">
       <c r="A10" s="4" t="s">
         <v>118</v>
       </c>
@@ -5419,7 +5544,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="34">
       <c r="A11" s="4" t="s">
         <v>119</v>
       </c>
@@ -5430,7 +5555,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="34">
       <c r="A12" s="4" t="s">
         <v>120</v>
       </c>
@@ -5441,7 +5566,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="51">
       <c r="A13" s="4" t="s">
         <v>121</v>
       </c>
@@ -5452,7 +5577,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="68">
       <c r="A14" s="4" t="s">
         <v>122</v>
       </c>
@@ -5463,7 +5588,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="34">
       <c r="A15" s="4" t="s">
         <v>123</v>
       </c>
@@ -5474,7 +5599,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="17">
       <c r="A16" s="4" t="s">
         <v>124</v>
       </c>
@@ -5485,7 +5610,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="34">
       <c r="A17" s="4" t="s">
         <v>125</v>
       </c>
@@ -5496,7 +5621,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="17">
       <c r="A18" s="4" t="s">
         <v>126</v>
       </c>
@@ -5507,7 +5632,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="17">
       <c r="A19" t="s">
         <v>127</v>
       </c>
@@ -5518,7 +5643,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="17">
       <c r="A20" t="s">
         <v>128</v>
       </c>
@@ -5529,7 +5654,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="34">
       <c r="A21" t="s">
         <v>129</v>
       </c>
@@ -5540,7 +5665,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="34">
       <c r="A22" t="s">
         <v>130</v>
       </c>
@@ -5551,7 +5676,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="34">
       <c r="A23" t="s">
         <v>131</v>
       </c>
@@ -5562,7 +5687,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="34">
       <c r="A24" t="s">
         <v>132</v>
       </c>
@@ -5573,7 +5698,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="51">
       <c r="A25" t="s">
         <v>133</v>
       </c>
@@ -5584,7 +5709,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="34">
       <c r="A26" t="s">
         <v>134</v>
       </c>
@@ -5595,7 +5720,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="136">
       <c r="A27" t="s">
         <v>135</v>
       </c>
@@ -5606,7 +5731,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="34">
       <c r="A28" t="s">
         <v>136</v>
       </c>
@@ -5617,7 +5742,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="34">
       <c r="A29" t="s">
         <v>137</v>
       </c>
@@ -5628,7 +5753,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="17">
       <c r="A30" s="4" t="s">
         <v>138</v>
       </c>
@@ -5639,7 +5764,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="17">
       <c r="A31" s="4" t="s">
         <v>139</v>
       </c>
@@ -5650,7 +5775,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="34">
       <c r="A32" s="4" t="s">
         <v>140</v>
       </c>
@@ -5661,7 +5786,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="17">
       <c r="A33" t="s">
         <v>141</v>
       </c>
@@ -5672,7 +5797,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="34">
       <c r="A34" t="s">
         <v>142</v>
       </c>
@@ -5683,7 +5808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="51">
       <c r="A35" s="4" t="s">
         <v>143</v>
       </c>
@@ -5694,7 +5819,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="34">
       <c r="A36" s="4" t="s">
         <v>144</v>
       </c>
@@ -5705,7 +5830,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="34">
       <c r="A37" s="4" t="s">
         <v>145</v>
       </c>
@@ -5716,7 +5841,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="34">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -5727,7 +5852,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="34">
       <c r="A39" s="4" t="s">
         <v>147</v>
       </c>
@@ -5738,7 +5863,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="34">
       <c r="A40" t="s">
         <v>148</v>
       </c>
@@ -5749,7 +5874,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="34">
       <c r="A41" t="s">
         <v>149</v>
       </c>
@@ -5760,7 +5885,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="34">
       <c r="A42" t="s">
         <v>150</v>
       </c>
@@ -5771,7 +5896,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="34">
       <c r="A43" t="s">
         <v>151</v>
       </c>

--- a/TeamYYZReport.xlsx
+++ b/TeamYYZReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silas/Documents/my-stevens-course/CS-555/HW/Parser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EE5D20-E5CD-2C40-84FD-108A9147227B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0BE275A-2091-D744-8545-A8712421B736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="414">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -996,10 +996,6 @@
   </si>
   <si>
     <t>test_list_recent_deaths</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Keep doing:</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1402,7 +1398,76 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Sprint3 stories has been done!</t>
+    <t>334-345</t>
+  </si>
+  <si>
+    <t>dates_bofore_current_date</t>
+  </si>
+  <si>
+    <t>birth_before_death</t>
+  </si>
+  <si>
+    <t>346-362</t>
+  </si>
+  <si>
+    <t>marriage_before_divorce</t>
+  </si>
+  <si>
+    <t>marriage_before_death</t>
+  </si>
+  <si>
+    <t>276-288</t>
+  </si>
+  <si>
+    <t>288-299</t>
+  </si>
+  <si>
+    <t>list_deceased</t>
+  </si>
+  <si>
+    <t>299-311</t>
+  </si>
+  <si>
+    <t>312-335</t>
+  </si>
+  <si>
+    <t>list_large_age_differences</t>
+  </si>
+  <si>
+    <t>test_dates_before_current_date</t>
+  </si>
+  <si>
+    <t>160-171</t>
+  </si>
+  <si>
+    <t>test_birth_before_death</t>
+  </si>
+  <si>
+    <t>171-202</t>
+  </si>
+  <si>
+    <t>test_marriage_before_death</t>
+  </si>
+  <si>
+    <t>137-160</t>
+  </si>
+  <si>
+    <t>test_marriage_before_divorce</t>
+  </si>
+  <si>
+    <t>112-137</t>
+  </si>
+  <si>
+    <t>test_deceased</t>
+  </si>
+  <si>
+    <t>82-93</t>
+  </si>
+  <si>
+    <t>test_large_age_differences</t>
+  </si>
+  <si>
+    <t>93-113</t>
   </si>
   <si>
     <t>Keep refactoring the code</t>
@@ -2798,7 +2863,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -2905,7 +2970,7 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B19"/>
+      <selection activeCell="B20" sqref="B20:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -3143,13 +3208,13 @@
         <v>3</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C14" t="s">
         <v>152</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>229</v>
@@ -3160,13 +3225,13 @@
         <v>3</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C15" t="s">
         <v>66</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>229</v>
@@ -3177,13 +3242,13 @@
         <v>3</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>229</v>
@@ -3194,13 +3259,13 @@
         <v>3</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C17" t="s">
         <v>69</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>229</v>
@@ -3211,13 +3276,13 @@
         <v>3</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C18" t="s">
         <v>94</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>229</v>
@@ -3228,13 +3293,13 @@
         <v>3</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C19" t="s">
         <v>108</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E19" s="19" t="s">
         <v>229</v>
@@ -3245,16 +3310,16 @@
         <v>4</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>195</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3262,7 +3327,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C21" t="s">
         <v>79</v>
@@ -3271,7 +3336,7 @@
         <v>195</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3279,7 +3344,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C22" t="s">
         <v>78</v>
@@ -3288,7 +3353,7 @@
         <v>190</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3296,7 +3361,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C23" t="s">
         <v>80</v>
@@ -3305,7 +3370,7 @@
         <v>190</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3313,7 +3378,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C24" t="s">
         <v>166</v>
@@ -3322,7 +3387,7 @@
         <v>196</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3330,7 +3395,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C25" t="s">
         <v>172</v>
@@ -3339,7 +3404,7 @@
         <v>196</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -3353,8 +3418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E3" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -3549,7 +3614,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -3607,11 +3672,11 @@
         <v>500</v>
       </c>
       <c r="E3">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="F3" s="9">
-        <f t="shared" ref="F3:F4" si="0">(D3-D2)/E3*60</f>
-        <v>88.235294117647072</v>
+        <f>(D3-D2)/E3*60</f>
+        <v>78.94736842105263</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3625,13 +3690,14 @@
         <v>6</v>
       </c>
       <c r="D4">
+        <f>281+500</f>
         <v>781</v>
       </c>
       <c r="E4">
         <v>200</v>
       </c>
       <c r="F4" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F4:F5" si="0">(D4-D3)/E4*60</f>
         <v>84.3</v>
       </c>
     </row>
@@ -3646,15 +3712,15 @@
         <v>6</v>
       </c>
       <c r="D5">
-        <f>344+781</f>
-        <v>1125</v>
+        <f>781+290</f>
+        <v>1071</v>
       </c>
       <c r="E5">
-        <v>310</v>
+        <v>200</v>
       </c>
       <c r="F5" s="9">
-        <f>(D5-D4)/E5*60</f>
-        <v>66.58064516129032</v>
+        <f t="shared" si="0"/>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3670,7 +3736,7 @@
   <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -3760,7 +3826,7 @@
         <v>60</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
@@ -3893,7 +3959,7 @@
         <v>80</v>
       </c>
       <c r="H14">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" ht="14">
@@ -3945,7 +4011,7 @@
         <v>120</v>
       </c>
       <c r="H19">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4162,8 +4228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="150" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView topLeftCell="E1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -4249,25 +4315,25 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
+        <v>307</v>
+      </c>
+      <c r="J2" t="s">
         <v>308</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>309</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="L2" s="19" t="s">
-        <v>311</v>
-      </c>
       <c r="M2" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="O2" s="19" t="s">
         <v>322</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4327,25 +4393,25 @@
         <v>30</v>
       </c>
       <c r="I7" t="s">
+        <v>307</v>
+      </c>
+      <c r="J7" t="s">
         <v>308</v>
       </c>
-      <c r="J7" t="s">
-        <v>309</v>
-      </c>
       <c r="K7" t="s">
+        <v>311</v>
+      </c>
+      <c r="L7" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="L7" s="19" t="s">
-        <v>313</v>
-      </c>
       <c r="M7" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -4414,25 +4480,25 @@
         <v>40</v>
       </c>
       <c r="I13" t="s">
+        <v>307</v>
+      </c>
+      <c r="J13" t="s">
         <v>308</v>
       </c>
-      <c r="J13" t="s">
-        <v>309</v>
-      </c>
       <c r="K13" t="s">
+        <v>313</v>
+      </c>
+      <c r="L13" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="L13" s="19" t="s">
-        <v>315</v>
-      </c>
       <c r="M13" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="O13" s="19" t="s">
         <v>326</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -4502,25 +4568,25 @@
         <v>30</v>
       </c>
       <c r="I19" t="s">
+        <v>307</v>
+      </c>
+      <c r="J19" t="s">
         <v>308</v>
       </c>
-      <c r="J19" t="s">
-        <v>309</v>
-      </c>
       <c r="K19" t="s">
+        <v>315</v>
+      </c>
+      <c r="L19" s="19" t="s">
         <v>316</v>
       </c>
-      <c r="L19" s="19" t="s">
-        <v>317</v>
-      </c>
       <c r="M19" s="19" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="N19" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="O19" s="19" t="s">
         <v>329</v>
-      </c>
-      <c r="O19" s="19" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -4574,25 +4640,25 @@
         <v>40</v>
       </c>
       <c r="I23" t="s">
+        <v>307</v>
+      </c>
+      <c r="J23" t="s">
         <v>308</v>
       </c>
-      <c r="J23" t="s">
-        <v>309</v>
-      </c>
       <c r="K23" t="s">
+        <v>317</v>
+      </c>
+      <c r="L23" s="19" t="s">
         <v>318</v>
       </c>
-      <c r="L23" s="19" t="s">
-        <v>319</v>
-      </c>
       <c r="M23" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O23" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="16.5" customHeight="1">
@@ -4651,61 +4717,61 @@
         <v>30</v>
       </c>
       <c r="I28" t="s">
+        <v>307</v>
+      </c>
+      <c r="J28" t="s">
         <v>308</v>
       </c>
-      <c r="J28" t="s">
-        <v>309</v>
-      </c>
       <c r="K28" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="L28" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="L28" s="19" t="s">
-        <v>321</v>
-      </c>
       <c r="M28" s="19" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="N28" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="O28" s="19" t="s">
         <v>333</v>
-      </c>
-      <c r="O28" s="19" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="14">
       <c r="A31" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>339</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14">
       <c r="A34" s="27" t="s">
-        <v>279</v>
+        <v>31</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="26"/>
       <c r="B35" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4"/>
       <c r="B36" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -4717,18 +4783,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I36"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="50.5" customWidth="1"/>
+    <col min="11" max="11" width="24.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
+    <col min="14" max="14" width="27.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14">
+    <row r="1" spans="1:15" ht="14">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4756,19 +4826,37 @@
       <c r="I1" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="19" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
         <v>152</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -4777,52 +4865,70 @@
         <v>80</v>
       </c>
       <c r="G2">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="H2">
-        <v>60</v>
-      </c>
-      <c r="I2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="J2" s="19" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="K2" t="s">
+        <v>388</v>
+      </c>
+      <c r="L2" t="s">
+        <v>387</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:15">
       <c r="A4" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:15">
       <c r="A5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:15">
       <c r="A6" s="19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B6" t="s">
         <v>66</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -4831,62 +4937,80 @@
         <v>100</v>
       </c>
       <c r="G6">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="H6">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="J6" s="19" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" t="s">
+        <v>389</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="O6" s="19" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:15">
       <c r="A8" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:15">
       <c r="A9" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>301</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>302</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:15">
       <c r="A10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:15">
       <c r="A11" s="19" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B11" t="s">
         <v>68</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -4895,47 +5019,65 @@
         <v>110</v>
       </c>
       <c r="G11">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="H11">
         <v>40</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="J11" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="K11" t="s">
+        <v>391</v>
+      </c>
+      <c r="L11" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="M11" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>405</v>
+      </c>
+      <c r="O11" s="19" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:15">
       <c r="A13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:15">
       <c r="A14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:15">
       <c r="A15" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B15" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -4944,58 +5086,76 @@
         <v>70</v>
       </c>
       <c r="G15">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="H15">
-        <v>60</v>
-      </c>
-      <c r="I15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="J15" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
+      <c r="K15" t="s">
+        <v>392</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>394</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="O15" s="19" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:15">
       <c r="A17" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:15">
       <c r="A18" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="B18" s="19" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="19"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:15">
       <c r="A20" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E20">
         <v>50</v>
@@ -5004,55 +5164,73 @@
         <v>80</v>
       </c>
       <c r="G20">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H20">
-        <v>50</v>
-      </c>
-      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="J20" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
+      <c r="K20" t="s">
+        <v>395</v>
+      </c>
+      <c r="L20" s="19" t="s">
+        <v>396</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>407</v>
+      </c>
+      <c r="O20" s="19" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:15">
       <c r="A22" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:15">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:15">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:15">
       <c r="A25" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E25">
         <v>50</v>
@@ -5061,65 +5239,82 @@
         <v>100</v>
       </c>
       <c r="G25">
+        <v>56</v>
+      </c>
+      <c r="H25">
+        <v>30</v>
+      </c>
+      <c r="I25" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="J25" t="s">
+        <v>308</v>
+      </c>
+      <c r="K25" t="s">
+        <v>398</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="M25" t="s">
+        <v>325</v>
+      </c>
+      <c r="N25" s="19" t="s">
+        <v>409</v>
+      </c>
+      <c r="O25" s="19" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="19" t="s">
+        <v>350</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>353</v>
+      </c>
+      <c r="N26" s="19"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="19" t="s">
+        <v>351</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="28">
+      <c r="A32" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="14">
+      <c r="A35" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="H25">
-        <v>60</v>
-      </c>
-      <c r="I25" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="19" t="s">
-        <v>351</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="19" t="s">
-        <v>352</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="28">
-      <c r="A30" s="27" t="s">
-        <v>339</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="28">
-      <c r="A33" s="27" t="s">
+      <c r="B35" s="26" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="B36" s="19" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="B37" s="19" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="B33" s="26" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="26"/>
-      <c r="B34" s="19" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="19" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>391</v>
+      <c r="B38" s="19" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -5133,8 +5328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -5173,16 +5368,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>195</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -5193,19 +5388,19 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="19" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C4" s="19"/>
     </row>
@@ -5216,7 +5411,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B6" t="s">
         <v>79</v>
@@ -5225,7 +5420,7 @@
         <v>195</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -5236,19 +5431,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="19" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="19" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C8" s="19"/>
     </row>
@@ -5258,7 +5453,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -5267,7 +5462,7 @@
         <v>190</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -5278,18 +5473,18 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="19" t="s">
+        <v>373</v>
+      </c>
+      <c r="B12" s="19" t="s">
         <v>374</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>375</v>
       </c>
       <c r="C12" s="19"/>
     </row>
@@ -5299,7 +5494,7 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B14" t="s">
         <v>80</v>
@@ -5308,7 +5503,7 @@
         <v>190</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -5319,18 +5514,18 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="19" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="19" t="s">
+        <v>376</v>
+      </c>
+      <c r="B16" s="19" t="s">
         <v>377</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>378</v>
       </c>
       <c r="C16" s="19"/>
     </row>
@@ -5340,7 +5535,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B18" t="s">
         <v>166</v>
@@ -5349,7 +5544,7 @@
         <v>196</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E18">
         <v>50</v>
@@ -5360,18 +5555,18 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5380,7 +5575,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="19" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B22" t="s">
         <v>172</v>
@@ -5389,7 +5584,7 @@
         <v>196</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E22">
         <v>50</v>
@@ -5400,18 +5595,18 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>384</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>386</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>387</v>
       </c>
     </row>
   </sheetData>
@@ -5424,7 +5619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -5560,7 +5755,7 @@
         <v>120</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>41</v>
@@ -5585,7 +5780,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="34">
@@ -5731,7 +5926,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34">
+    <row r="28" spans="1:3" ht="17">
       <c r="A28" t="s">
         <v>136</v>
       </c>
@@ -5758,10 +5953,10 @@
         <v>138</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17">
@@ -5813,7 +6008,7 @@
         <v>143</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>56</v>

--- a/TeamYYZReport.xlsx
+++ b/TeamYYZReport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silas/Documents/my-stevens-course/CS-555/HW/Parser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A0BE275A-2091-D744-8545-A8712421B736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EDADD9-6DA3-8A4C-9C28-E82DC620A8AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="415">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1028,10 +1028,6 @@
   </si>
   <si>
     <t>zw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coding</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1477,6 +1473,12 @@
   </si>
   <si>
     <t>Avoid forgetting to test</t>
+  </si>
+  <si>
+    <t>no_bigamy</t>
+  </si>
+  <si>
+    <t>test_no_bigamy</t>
   </si>
 </sst>
 </file>
@@ -2863,7 +2865,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -3276,7 +3278,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C18" t="s">
         <v>94</v>
@@ -3293,7 +3295,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C19" t="s">
         <v>108</v>
@@ -3310,10 +3312,10 @@
         <v>4</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D20" s="19" t="s">
         <v>195</v>
@@ -3327,7 +3329,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C21" t="s">
         <v>79</v>
@@ -3344,7 +3346,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C22" t="s">
         <v>78</v>
@@ -3361,7 +3363,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C23" t="s">
         <v>80</v>
@@ -3378,7 +3380,7 @@
         <v>4</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C24" t="s">
         <v>166</v>
@@ -3395,7 +3397,7 @@
         <v>4</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C25" t="s">
         <v>172</v>
@@ -4228,7 +4230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="H2" sqref="H2:H30"/>
     </sheetView>
   </sheetViews>
@@ -4315,25 +4317,25 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J2" t="s">
         <v>307</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>308</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="L2" s="19" t="s">
-        <v>310</v>
-      </c>
       <c r="M2" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="O2" s="19" t="s">
         <v>321</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>309</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4393,25 +4395,25 @@
         <v>30</v>
       </c>
       <c r="I7" t="s">
+        <v>306</v>
+      </c>
+      <c r="J7" t="s">
         <v>307</v>
       </c>
-      <c r="J7" t="s">
-        <v>308</v>
-      </c>
       <c r="K7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L7" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="L7" s="19" t="s">
-        <v>312</v>
-      </c>
       <c r="M7" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -4480,25 +4482,25 @@
         <v>40</v>
       </c>
       <c r="I13" t="s">
+        <v>306</v>
+      </c>
+      <c r="J13" t="s">
         <v>307</v>
       </c>
-      <c r="J13" t="s">
-        <v>308</v>
-      </c>
       <c r="K13" t="s">
+        <v>312</v>
+      </c>
+      <c r="L13" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="L13" s="19" t="s">
-        <v>314</v>
-      </c>
       <c r="M13" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="O13" s="19" t="s">
         <v>325</v>
-      </c>
-      <c r="N13" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="O13" s="19" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -4568,25 +4570,25 @@
         <v>30</v>
       </c>
       <c r="I19" t="s">
+        <v>306</v>
+      </c>
+      <c r="J19" t="s">
         <v>307</v>
       </c>
-      <c r="J19" t="s">
-        <v>308</v>
-      </c>
       <c r="K19" t="s">
+        <v>314</v>
+      </c>
+      <c r="L19" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="L19" s="19" t="s">
-        <v>316</v>
-      </c>
       <c r="M19" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N19" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="O19" s="19" t="s">
         <v>328</v>
-      </c>
-      <c r="O19" s="19" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -4640,25 +4642,25 @@
         <v>40</v>
       </c>
       <c r="I23" t="s">
+        <v>306</v>
+      </c>
+      <c r="J23" t="s">
         <v>307</v>
       </c>
-      <c r="J23" t="s">
-        <v>308</v>
-      </c>
       <c r="K23" t="s">
+        <v>316</v>
+      </c>
+      <c r="L23" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="L23" s="19" t="s">
-        <v>318</v>
-      </c>
       <c r="M23" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N23" s="19" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="O23" s="19" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="16.5" customHeight="1">
@@ -4717,33 +4719,33 @@
         <v>30</v>
       </c>
       <c r="I28" t="s">
+        <v>306</v>
+      </c>
+      <c r="J28" t="s">
         <v>307</v>
       </c>
-      <c r="J28" t="s">
-        <v>308</v>
-      </c>
       <c r="K28" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="L28" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="L28" s="19" t="s">
-        <v>320</v>
-      </c>
       <c r="M28" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N28" s="19" t="s">
+        <v>331</v>
+      </c>
+      <c r="O28" s="19" t="s">
         <v>332</v>
-      </c>
-      <c r="O28" s="19" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="14">
       <c r="A31" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="B31" s="19" t="s">
         <v>338</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="14">
@@ -4751,19 +4753,19 @@
         <v>31</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="26"/>
       <c r="B35" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4"/>
       <c r="B36" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -4771,7 +4773,7 @@
         <v>279</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -4785,8 +4787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H27"/>
+    <sheetView topLeftCell="F1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -4856,7 +4858,7 @@
         <v>284</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -4871,43 +4873,43 @@
         <v>30</v>
       </c>
       <c r="I2" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="J2" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="J2" s="19" t="s">
-        <v>308</v>
-      </c>
       <c r="K2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N2" s="19" t="s">
+        <v>398</v>
+      </c>
+      <c r="O2" s="19" t="s">
         <v>399</v>
-      </c>
-      <c r="O2" s="19" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
@@ -4928,7 +4930,7 @@
         <v>284</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -4943,53 +4945,53 @@
         <v>30</v>
       </c>
       <c r="I6" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="J6" s="19" t="s">
         <v>307</v>
       </c>
-      <c r="J6" s="19" t="s">
-        <v>308</v>
-      </c>
       <c r="K6" t="s">
+        <v>388</v>
+      </c>
+      <c r="L6" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="L6" s="19" t="s">
-        <v>390</v>
-      </c>
       <c r="M6" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N6" s="19" t="s">
+        <v>400</v>
+      </c>
+      <c r="O6" s="19" t="s">
         <v>401</v>
-      </c>
-      <c r="O6" s="19" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="19" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="19" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="19" t="s">
         <v>300</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>301</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
@@ -5010,7 +5012,7 @@
         <v>285</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -5025,33 +5027,33 @@
         <v>40</v>
       </c>
       <c r="I11" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="J11" t="s">
         <v>307</v>
       </c>
-      <c r="J11" t="s">
-        <v>308</v>
-      </c>
       <c r="K11" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N11" s="19" t="s">
+        <v>404</v>
+      </c>
+      <c r="O11" s="19" t="s">
         <v>405</v>
-      </c>
-      <c r="O11" s="19" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="19" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -5077,7 +5079,7 @@
         <v>285</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -5092,53 +5094,53 @@
         <v>30</v>
       </c>
       <c r="I15" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="J15" t="s">
         <v>307</v>
       </c>
-      <c r="J15" t="s">
-        <v>308</v>
-      </c>
       <c r="K15" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="L15" s="19" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M15" s="19" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="N15" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="O15" s="19" t="s">
         <v>403</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="19" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
     </row>
     <row r="17" spans="1:15">
       <c r="A17" s="19" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="B18" s="19" t="s">
         <v>305</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -5146,16 +5148,16 @@
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C20" s="19" t="s">
         <v>286</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="E20">
         <v>50</v>
@@ -5170,43 +5172,43 @@
         <v>40</v>
       </c>
       <c r="I20" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="J20" t="s">
         <v>307</v>
       </c>
-      <c r="J20" t="s">
-        <v>308</v>
-      </c>
       <c r="K20" t="s">
+        <v>394</v>
+      </c>
+      <c r="L20" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="L20" s="19" t="s">
-        <v>396</v>
-      </c>
       <c r="M20" s="19" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N20" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="O20" s="19" t="s">
         <v>407</v>
-      </c>
-      <c r="O20" s="19" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="19" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
@@ -5221,16 +5223,16 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="19" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>286</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>288</v>
+        <v>228</v>
       </c>
       <c r="E25">
         <v>50</v>
@@ -5245,50 +5247,50 @@
         <v>30</v>
       </c>
       <c r="I25" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="J25" t="s">
         <v>307</v>
       </c>
-      <c r="J25" t="s">
-        <v>308</v>
-      </c>
       <c r="K25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="L25" s="19" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M25" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="N25" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="O25" s="19" t="s">
         <v>409</v>
-      </c>
-      <c r="O25" s="19" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N26" s="19"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="19" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="28">
       <c r="A32" s="27" t="s">
+        <v>337</v>
+      </c>
+      <c r="B32" s="19" t="s">
         <v>338</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="14">
@@ -5296,17 +5298,17 @@
         <v>31</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="B36" s="19" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="B37" s="19" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -5314,7 +5316,7 @@
         <v>279</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -5326,18 +5328,20 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="51.33203125" customWidth="1"/>
+    <col min="13" max="13" width="18.1640625" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14">
+    <row r="1" spans="1:15" ht="14">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -5365,19 +5369,37 @@
       <c r="I1" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C2" s="19" t="s">
         <v>195</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>287</v>
+        <v>228</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -5385,33 +5407,60 @@
       <c r="F2">
         <v>80</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="G2">
+        <v>58</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>306</v>
+      </c>
+      <c r="J2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>320</v>
+      </c>
+      <c r="N2" t="s">
+        <v>414</v>
+      </c>
+      <c r="O2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="19" t="s">
+        <v>361</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3" s="19"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="19" t="s">
         <v>362</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B4" s="19" t="s">
         <v>366</v>
       </c>
-      <c r="C3" s="19"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="19" t="s">
-        <v>363</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>367</v>
-      </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:15">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:15">
       <c r="A6" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B6" t="s">
         <v>79</v>
@@ -5429,31 +5478,31 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:15">
       <c r="A7" s="19" t="s">
+        <v>363</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>367</v>
+      </c>
+      <c r="C7" s="19"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="19" t="s">
         <v>364</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B8" s="19" t="s">
         <v>368</v>
       </c>
-      <c r="C7" s="19"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="19" t="s">
-        <v>365</v>
-      </c>
-      <c r="B8" s="19" t="s">
-        <v>369</v>
-      </c>
       <c r="C8" s="19"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:15">
       <c r="A9" s="19"/>
       <c r="C9" s="19"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:15">
       <c r="A10" s="19" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -5471,30 +5520,30 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:15">
       <c r="A11" s="19" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B11" s="19" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="19" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="19" t="s">
+      <c r="B12" s="19" t="s">
         <v>373</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>374</v>
-      </c>
       <c r="C12" s="19"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:15">
       <c r="A13" s="19"/>
       <c r="C13" s="19"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:15">
       <c r="A14" s="19" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B14" t="s">
         <v>80</v>
@@ -5512,20 +5561,20 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:15">
       <c r="A15" s="19" t="s">
+        <v>374</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="19" t="s">
         <v>375</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="19" t="s">
+      <c r="B16" s="19" t="s">
         <v>376</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>377</v>
       </c>
       <c r="C16" s="19"/>
     </row>
@@ -5535,7 +5584,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="19" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B18" t="s">
         <v>166</v>
@@ -5555,18 +5604,18 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="19" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -5575,7 +5624,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="19" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B22" t="s">
         <v>172</v>
@@ -5595,18 +5644,18 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="B23" s="19" t="s">
         <v>383</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="B24" s="19" t="s">
         <v>385</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -5620,7 +5669,7 @@
   <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
@@ -5755,7 +5804,7 @@
         <v>120</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>41</v>
@@ -5780,7 +5829,7 @@
         <v>78</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="34">
@@ -5953,10 +6002,10 @@
         <v>138</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="17">
@@ -6008,7 +6057,7 @@
         <v>143</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C35" s="12" t="s">
         <v>56</v>

--- a/TeamYYZReport.xlsx
+++ b/TeamYYZReport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silas/Documents/my-stevens-course/CS-555/HW/Parser/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EDADD9-6DA3-8A4C-9C28-E82DC620A8AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC08671-808B-8E43-9F54-C0FE1A06BBCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="417">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1479,6 +1479,12 @@
   </si>
   <si>
     <t>test_no_bigamy</t>
+  </si>
+  <si>
+    <t>fewer_than_15_siblings</t>
+  </si>
+  <si>
+    <t>test_fewer_than_15_siblings</t>
   </si>
 </sst>
 </file>
@@ -5330,15 +5336,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
   <cols>
     <col min="2" max="2" width="51.33203125" customWidth="1"/>
+    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="12" max="12" width="20.5" customWidth="1"/>
     <col min="13" max="13" width="18.1640625" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="14" max="14" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="14">
@@ -5469,13 +5477,40 @@
         <v>195</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>287</v>
+        <v>228</v>
       </c>
       <c r="E6">
         <v>50</v>
       </c>
       <c r="F6">
         <v>90</v>
+      </c>
+      <c r="G6">
+        <v>50</v>
+      </c>
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>306</v>
+      </c>
+      <c r="J6" t="s">
+        <v>307</v>
+      </c>
+      <c r="K6" t="s">
+        <v>415</v>
+      </c>
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="M6" t="s">
+        <v>324</v>
+      </c>
+      <c r="N6" t="s">
+        <v>416</v>
+      </c>
+      <c r="O6">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -5668,7 +5703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/TeamYYZReport.xlsx
+++ b/TeamYYZReport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/silas/Documents/my-stevens-course/CS-555/HW/Parser/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\CS555-Agille-Methods\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EC08671-808B-8E43-9F54-C0FE1A06BBCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1AB1ADE-B296-44AD-A8E5-A6C9A22C2F06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="423">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -197,9 +199,6 @@
     <t>Marriage should not occur during marriage to another spouse</t>
   </si>
   <si>
-    <t>No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
     <t>There should be fewer than 15 siblings in a family</t>
   </si>
   <si>
@@ -254,9 +253,6 @@
     <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
   </si>
   <si>
-    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
     <t>Accept and use dates without days or without days and months</t>
   </si>
   <si>
@@ -323,9 +319,6 @@
     <t>Aunts and uncles</t>
   </si>
   <si>
-    <t>Correct gender for role</t>
-  </si>
-  <si>
     <t>Husband in family should be male and wife in family should be female</t>
   </si>
   <si>
@@ -380,9 +373,6 @@
     <t>List upcoming birthdays</t>
   </si>
   <si>
-    <t>List upcoming anniversaries</t>
-  </si>
-  <si>
     <t>Include input line numbers</t>
   </si>
   <si>
@@ -567,9 +557,6 @@
   </si>
   <si>
     <t>Here's a sample burndown chart for a team of three:</t>
-  </si>
-  <si>
-    <t>Multiple births &lt;= 5</t>
   </si>
   <si>
     <t>Children should be born after marriage of parents (and not more than 9 months after their divorce)</t>
@@ -1278,19 +1265,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>US14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>US15</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>US16</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>US17</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1370,30 +1349,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Store birth dates of siblings</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Make sure there are less than 5 siblings born in a same time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>T17.01</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Store marriage information of a family </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>T17.02</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>check the spouse can't be their children</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>334-345</t>
   </si>
   <si>
@@ -1485,6 +1448,69 @@
   </si>
   <si>
     <t>test_fewer_than_15_siblings</t>
+  </si>
+  <si>
+    <t>Multiple births &lt;= 5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>No more than five siblings should be born at the same time</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>US21</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Correct gender for role</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>US39</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>check marriage date and compare with today's date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Find marriage record</t>
+  </si>
+  <si>
+    <t>check their genders</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>correct_gender_for_role</t>
+  </si>
+  <si>
+    <t>list_upcoming_anniversaries</t>
+  </si>
+  <si>
+    <t>test_list_upcoming_anniversaries</t>
+  </si>
+  <si>
+    <t>test_correct_gender_for_role</t>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1492,10 +1518,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="m/d"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1650,20 +1676,20 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1671,7 +1697,7 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1704,72 +1730,72 @@
     </xf>
   </cellXfs>
   <cellStyles count="66">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="65" xr:uid="{2793029F-823E-4C2B-BEB7-439A2289C590}"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1787,7 +1813,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1811,7 +1837,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>41065</c:v>
@@ -1882,7 +1908,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1924,7 +1950,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2875,16 +2901,16 @@
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="21.875" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2901,63 +2927,63 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B3" s="19" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="E3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="E3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B4" s="19" t="s">
+      <c r="E4" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="D5" s="20" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="19" t="s">
-        <v>196</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="E5" t="s">
         <v>183</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -2978,19 +3004,19 @@
   <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:C25"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" customWidth="1"/>
+    <col min="2" max="2" width="7.625" customWidth="1"/>
     <col min="3" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" customWidth="1"/>
-    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="4" max="4" width="6.625" customWidth="1"/>
+    <col min="5" max="5" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>29</v>
       </c>
@@ -3007,412 +3033,412 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E8" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C9" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C14" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>4</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>4</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="C24" t="s">
-        <v>166</v>
+        <v>411</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>412</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="C25" t="s">
-        <v>172</v>
+        <v>414</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>413</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -3426,53 +3452,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E3" sqref="E2:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="10.875" style="7"/>
     <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>0</v>
@@ -3493,9 +3519,9 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B15" s="13">
         <v>41065</v>
@@ -3509,9 +3535,9 @@
       <c r="F15" s="14"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B16" s="13">
         <v>41078</v>
@@ -3534,9 +3560,9 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B17" s="13">
         <v>41092</v>
@@ -3559,9 +3585,9 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B18" s="13">
         <v>41106</v>
@@ -3584,9 +3610,9 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B19" s="13">
         <v>41120</v>
@@ -3625,17 +3651,17 @@
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3655,7 +3681,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42261</v>
       </c>
@@ -3666,7 +3692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42275</v>
       </c>
@@ -3687,7 +3713,7 @@
         <v>78.94736842105263</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42289</v>
       </c>
@@ -3709,7 +3735,7 @@
         <v>84.3</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42303</v>
       </c>
@@ -3743,31 +3769,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Q42"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView topLeftCell="A10" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" customWidth="1"/>
-    <col min="2" max="2" width="51.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="51.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="12.875" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="17" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.33203125" style="17" customWidth="1"/>
+    <col min="12" max="12" width="22.375" style="17" customWidth="1"/>
     <col min="13" max="13" width="13" style="17" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="1.83203125" style="17" customWidth="1"/>
-    <col min="15" max="15" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.6640625" style="17" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.875" style="17" customWidth="1"/>
+    <col min="15" max="15" width="10.125" style="17" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.625" style="17" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -3796,36 +3822,36 @@
         <v>17</v>
       </c>
       <c r="K1" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q1" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E2">
         <v>150</v>
@@ -3843,54 +3869,54 @@
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
     </row>
-    <row r="4" spans="1:17" ht="14">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="19"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D8" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E8">
         <v>200</v>
@@ -3908,57 +3934,57 @@
       <c r="P8" s="18"/>
       <c r="Q8" s="18"/>
     </row>
-    <row r="10" spans="1:17" ht="14">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="D10" s="19"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
+        <v>203</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="21" t="s">
         <v>206</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>207</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="D10" s="19"/>
-    </row>
-    <row r="11" spans="1:17" ht="14">
-      <c r="A11" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="14">
-      <c r="A12" s="19" t="s">
-        <v>210</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>211</v>
-      </c>
       <c r="C12" s="19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="B13" s="21"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D14" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E14">
         <v>200</v>
@@ -3970,47 +3996,47 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="14">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B16" s="22" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D16" s="19"/>
       <c r="I16" s="7"/>
     </row>
-    <row r="17" spans="1:17" ht="14">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B17" s="23" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C17" s="19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="23"/>
       <c r="I18" s="7"/>
     </row>
-    <row r="19" spans="1:17">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E19">
         <v>150</v>
@@ -4022,46 +4048,46 @@
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:17">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="19"/>
       <c r="B20"/>
       <c r="C20" s="19"/>
       <c r="I20" s="7"/>
     </row>
-    <row r="21" spans="1:17" ht="14">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="1:17" ht="14">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="21"/>
       <c r="I23" s="7"/>
     </row>
-    <row r="24" spans="1:17" ht="15">
+    <row r="24" spans="1:17" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D24" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E24">
         <v>200</v>
@@ -4079,63 +4105,63 @@
         <v>42275</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="L24" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="M24" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="O24" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="P24" s="24" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q24" s="25" t="s">
         <v>238</v>
       </c>
-      <c r="M24" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="O24" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="P24" s="24" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q24" s="25" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B25"/>
       <c r="C25" s="19"/>
       <c r="I25" s="7"/>
     </row>
-    <row r="26" spans="1:17" ht="14">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" ht="14">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="D29" t="s">
         <v>223</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>224</v>
-      </c>
-      <c r="C27" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" ht="15">
-      <c r="A29" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="19" t="s">
-        <v>200</v>
-      </c>
-      <c r="D29" t="s">
-        <v>228</v>
       </c>
       <c r="E29">
         <v>150</v>
@@ -4153,74 +4179,74 @@
         <v>42274</v>
       </c>
       <c r="K29" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="L29" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="M29" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="O29" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="P29" s="24" t="s">
         <v>235</v>
       </c>
-      <c r="L29" s="24" t="s">
+      <c r="Q29" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="M29" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="O29" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="P29" s="24" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q29" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B30"/>
       <c r="C30" s="19"/>
       <c r="I30" s="7"/>
     </row>
-    <row r="31" spans="1:17" ht="14">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="19" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D31" s="19"/>
     </row>
-    <row r="32" spans="1:17" ht="14">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" s="19" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B32" s="21" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="14">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="19" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="14">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="14">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
         <v>32</v>
       </c>
@@ -4236,21 +4262,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H30"/>
+    <sheetView topLeftCell="D4" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="33.33203125" customWidth="1"/>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="43.125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33.375" customWidth="1"/>
     <col min="12" max="12" width="16.5" customWidth="1"/>
     <col min="13" max="13" width="29" customWidth="1"/>
-    <col min="14" max="14" width="35.1640625" customWidth="1"/>
+    <col min="14" max="14" width="35.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -4279,36 +4305,36 @@
         <v>17</v>
       </c>
       <c r="J1" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E2">
         <v>40</v>
@@ -4323,70 +4349,70 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="J2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="M2" s="19" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="N2" s="19" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="19" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
       <c r="C6" s="19"/>
       <c r="D6" s="19"/>
       <c r="O6" s="19"/>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E7">
         <v>50</v>
@@ -4401,79 +4427,79 @@
         <v>30</v>
       </c>
       <c r="I7" t="s">
+        <v>301</v>
+      </c>
+      <c r="J7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K7" t="s">
+        <v>305</v>
+      </c>
+      <c r="L7" s="19" t="s">
         <v>306</v>
       </c>
-      <c r="J7" t="s">
-        <v>307</v>
-      </c>
-      <c r="K7" t="s">
-        <v>310</v>
-      </c>
-      <c r="L7" s="19" t="s">
-        <v>311</v>
-      </c>
       <c r="M7" s="19" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="N7" s="19" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="19"/>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="19" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E13">
         <v>50</v>
@@ -4488,80 +4514,80 @@
         <v>40</v>
       </c>
       <c r="I13" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="J13" t="s">
+        <v>302</v>
+      </c>
+      <c r="K13" t="s">
         <v>307</v>
       </c>
-      <c r="K13" t="s">
-        <v>312</v>
-      </c>
       <c r="L13" s="19" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="M13" s="19" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="N13" s="19" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="O13" s="19" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="19"/>
       <c r="B18" s="19"/>
       <c r="C18" s="19"/>
       <c r="D18" s="19"/>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C19" s="19" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E19">
         <v>40</v>
@@ -4576,64 +4602,64 @@
         <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="J19" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K19" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="L19" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="M19" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="M19" s="19" t="s">
-        <v>320</v>
-      </c>
       <c r="N19" s="19" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="O19" s="19" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="19"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:15" ht="16.5" customHeight="1">
+    <row r="23" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E23">
         <v>30</v>
@@ -4648,69 +4674,69 @@
         <v>40</v>
       </c>
       <c r="I23" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="J23" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K23" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L23" s="19" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M23" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="O23" s="19" t="s">
         <v>324</v>
       </c>
-      <c r="N23" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="O23" s="19" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="16.5" customHeight="1">
+    </row>
+    <row r="24" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C24" s="19"/>
       <c r="D24" s="19"/>
     </row>
-    <row r="25" spans="1:15" ht="16.5" customHeight="1">
+    <row r="25" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C25" s="19"/>
       <c r="D25" s="19"/>
     </row>
-    <row r="26" spans="1:15" ht="16.5" customHeight="1">
+    <row r="26" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="19"/>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
     </row>
-    <row r="27" spans="1:15" ht="16.5" customHeight="1">
+    <row r="27" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="19"/>
       <c r="C27" s="19"/>
       <c r="D27" s="19"/>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="19" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B28" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E28">
         <v>60</v>
@@ -4725,61 +4751,61 @@
         <v>30</v>
       </c>
       <c r="I28" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="J28" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L28" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="M28" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="M28" s="19" t="s">
-        <v>324</v>
-      </c>
       <c r="N28" s="19" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="O28" s="19" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="27" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" ht="14">
-      <c r="A31" s="27" t="s">
-        <v>337</v>
-      </c>
       <c r="B31" s="19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="14">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
         <v>31</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="26"/>
       <c r="B35" s="19" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="19" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -4793,20 +4819,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="50.5" customWidth="1"/>
-    <col min="11" max="11" width="24.33203125" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" customWidth="1"/>
-    <col min="14" max="14" width="27.83203125" customWidth="1"/>
+    <col min="11" max="11" width="24.375" customWidth="1"/>
+    <col min="12" max="12" width="13.625" customWidth="1"/>
+    <col min="14" max="14" width="27.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -4835,36 +4861,36 @@
         <v>17</v>
       </c>
       <c r="J1" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -4879,64 +4905,64 @@
         <v>30</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="J2" s="19" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K2" t="s">
+        <v>376</v>
+      </c>
+      <c r="L2" t="s">
+        <v>375</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="N2" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="L2" t="s">
-        <v>386</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>398</v>
-      </c>
       <c r="O2" s="19" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -4951,74 +4977,74 @@
         <v>30</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="J6" s="19" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K6" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="L6" s="19" t="s">
+        <v>378</v>
+      </c>
+      <c r="M6" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="N6" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="M6" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>400</v>
-      </c>
       <c r="O6" s="19" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="19" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="19"/>
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E11">
         <v>50</v>
@@ -5033,59 +5059,59 @@
         <v>40</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="J11" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K11" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="L11" s="19" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="M11" s="19" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="N11" s="19" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="O11" s="19" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="19"/>
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E15">
         <v>50</v>
@@ -5100,70 +5126,70 @@
         <v>30</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="J15" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K15" t="s">
+        <v>380</v>
+      </c>
+      <c r="L15" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="M15" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="N15" s="19" t="s">
         <v>391</v>
       </c>
-      <c r="L15" s="19" t="s">
-        <v>393</v>
-      </c>
-      <c r="M15" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="N15" s="19" t="s">
-        <v>402</v>
-      </c>
       <c r="O15" s="19" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="19" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E20">
         <v>50</v>
@@ -5178,67 +5204,67 @@
         <v>40</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="J20" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K20" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="L20" s="19" t="s">
+        <v>384</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="N20" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="M20" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="N20" s="19" t="s">
-        <v>406</v>
-      </c>
       <c r="O20" s="19" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="19" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="19"/>
       <c r="B23" s="19"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="19"/>
       <c r="B24" s="19"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="19" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E25">
         <v>50</v>
@@ -5253,76 +5279,76 @@
         <v>30</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="J25" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K25" t="s">
+        <v>386</v>
+      </c>
+      <c r="L25" s="19" t="s">
+        <v>385</v>
+      </c>
+      <c r="M25" t="s">
+        <v>319</v>
+      </c>
+      <c r="N25" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="L25" s="19" t="s">
-        <v>396</v>
-      </c>
-      <c r="M25" t="s">
-        <v>324</v>
-      </c>
-      <c r="N25" s="19" t="s">
-        <v>408</v>
-      </c>
       <c r="O25" s="19" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="19" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="N26" s="19"/>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="19" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="28">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="14">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
         <v>31</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B36" s="19" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B37" s="19" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -5336,20 +5362,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="51.33203125" customWidth="1"/>
-    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="2" max="2" width="51.375" customWidth="1"/>
+    <col min="11" max="11" width="21.625" customWidth="1"/>
     <col min="12" max="12" width="20.5" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" customWidth="1"/>
+    <col min="13" max="13" width="18.125" customWidth="1"/>
     <col min="14" max="14" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="14">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
@@ -5378,36 +5404,36 @@
         <v>17</v>
       </c>
       <c r="J1" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="O1" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>175</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>174</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>177</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="19" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C2" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E2">
         <v>50</v>
@@ -5422,62 +5448,62 @@
         <v>30</v>
       </c>
       <c r="I2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="J2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K2" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="L2">
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="N2" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="O2">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="C3" s="19"/>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="19" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="19" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E6">
         <v>50</v>
@@ -5492,61 +5518,61 @@
         <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="J6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K6" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="L6">
         <v>9</v>
       </c>
       <c r="M6" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="N6" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="O6">
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="19" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C7" s="19"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C8" s="19"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="19"/>
       <c r="C9" s="19"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E10">
         <v>50</v>
@@ -5555,39 +5581,39 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="19" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C12" s="19"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="19"/>
       <c r="C13" s="19"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="19" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B14" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -5596,39 +5622,39 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="19" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="19" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="C16" s="19"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="19"/>
       <c r="C17" s="19"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="19" t="s">
-        <v>357</v>
-      </c>
-      <c r="B18" t="s">
-        <v>166</v>
+        <v>411</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>412</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E18">
         <v>50</v>
@@ -5636,39 +5662,66 @@
       <c r="F18">
         <v>90</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <v>30</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="J18" t="s">
+        <v>302</v>
+      </c>
+      <c r="K18" t="s">
+        <v>418</v>
+      </c>
+      <c r="L18">
+        <v>8</v>
+      </c>
+      <c r="M18" t="s">
+        <v>315</v>
+      </c>
+      <c r="N18" t="s">
+        <v>421</v>
+      </c>
+      <c r="O18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="19" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="19" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="19"/>
       <c r="C21" s="19"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="B22" t="s">
-        <v>172</v>
+        <v>414</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>413</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E22">
         <v>50</v>
@@ -5676,21 +5729,48 @@
       <c r="F22">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="H22">
+        <v>30</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>422</v>
+      </c>
+      <c r="J22" t="s">
+        <v>302</v>
+      </c>
+      <c r="K22" t="s">
+        <v>419</v>
+      </c>
+      <c r="L22">
+        <v>20</v>
+      </c>
+      <c r="M22" t="s">
+        <v>319</v>
+      </c>
+      <c r="N22" t="s">
+        <v>420</v>
+      </c>
+      <c r="O22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="19" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="19" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>385</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -5703,487 +5783,487 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="14">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="34">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17">
+    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17">
+    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="34">
+    <row r="5" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="17">
+    <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="17">
+    <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="51">
+    <row r="8" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="34">
-      <c r="A9" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B9" t="s">
-        <v>153</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="34">
-      <c r="A10" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="34">
-      <c r="A11" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="B11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="34">
-      <c r="A12" s="4" t="s">
-        <v>120</v>
-      </c>
       <c r="B12" s="19" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="63" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>406</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="68">
-      <c r="A14" s="4" t="s">
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="34">
-      <c r="A15" s="4" t="s">
+      <c r="B18" t="s">
+        <v>167</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>123</v>
       </c>
-      <c r="B15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17">
-      <c r="A16" s="4" t="s">
+      <c r="B19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>124</v>
       </c>
-      <c r="B16" t="s">
-        <v>79</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="34">
-      <c r="A17" s="4" t="s">
+      <c r="B20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>125</v>
       </c>
-      <c r="B17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17">
-      <c r="A18" s="4" t="s">
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B18" t="s">
-        <v>172</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17">
-      <c r="A19" t="s">
+      <c r="B22" s="19" t="s">
+        <v>408</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>127</v>
       </c>
-      <c r="B19" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17">
-      <c r="A20" t="s">
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>128</v>
       </c>
-      <c r="B20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="34">
-      <c r="A21" t="s">
+      <c r="B24" t="s">
+        <v>85</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>129</v>
       </c>
-      <c r="B21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="34">
-      <c r="A22" t="s">
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>130</v>
       </c>
-      <c r="B22" t="s">
-        <v>84</v>
-      </c>
-      <c r="C22" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="34">
-      <c r="A23" t="s">
+      <c r="B26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>131</v>
       </c>
-      <c r="B23" t="s">
-        <v>87</v>
-      </c>
-      <c r="C23" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="34">
-      <c r="A24" t="s">
+      <c r="B27" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>132</v>
       </c>
-      <c r="B24" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="51">
-      <c r="A25" t="s">
+      <c r="B28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>133</v>
       </c>
-      <c r="B25" t="s">
-        <v>89</v>
-      </c>
-      <c r="C25" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="34">
-      <c r="A26" t="s">
+      <c r="B29" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="B26" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="136">
-      <c r="A27" t="s">
+      <c r="B30" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B27" t="s">
-        <v>91</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="17">
-      <c r="A28" t="s">
+      <c r="B31" t="s">
+        <v>92</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B28" t="s">
-        <v>92</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="34">
-      <c r="A29" t="s">
+      <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>137</v>
       </c>
-      <c r="B29" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="17">
-      <c r="A30" s="4" t="s">
+      <c r="B33" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
         <v>138</v>
       </c>
-      <c r="B30" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="17">
-      <c r="A31" s="4" t="s">
+      <c r="B34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="B31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="34">
-      <c r="A32" s="4" t="s">
+      <c r="B35" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B36" t="s">
         <v>96</v>
       </c>
-      <c r="C32" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="17">
-      <c r="A33" t="s">
+      <c r="C36" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B37" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="34">
-      <c r="A34" t="s">
+      <c r="C37" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>142</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B38" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="51">
-      <c r="A35" s="4" t="s">
+      <c r="C38" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="B35" s="19" t="s">
-        <v>348</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="34">
-      <c r="A36" s="4" t="s">
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B36" t="s">
-        <v>99</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="34">
-      <c r="A37" s="4" t="s">
+      <c r="B40" s="19" t="s">
+        <v>410</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>145</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B41" t="s">
         <v>100</v>
       </c>
-      <c r="C37" s="12" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="34">
-      <c r="A38" t="s">
+      <c r="C41" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>146</v>
       </c>
-      <c r="B38" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="34">
-      <c r="A39" s="4" t="s">
+      <c r="B42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>147</v>
       </c>
-      <c r="B39" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="34">
-      <c r="A40" t="s">
-        <v>148</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="B43" t="s">
         <v>103</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C43" s="12" t="s">
         <v>61</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="34">
-      <c r="A41" t="s">
-        <v>149</v>
-      </c>
-      <c r="B41" t="s">
-        <v>104</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="34">
-      <c r="A42" t="s">
-        <v>150</v>
-      </c>
-      <c r="B42" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="34">
-      <c r="A43" t="s">
-        <v>151</v>
-      </c>
-      <c r="B43" t="s">
-        <v>107</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
